--- a/data/Makespans10.xlsx
+++ b/data/Makespans10.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/livion/Documents/GitHub/Cloud-Workflow-Scheduling-base-on-Deep-Reinforcement-Learning/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06C9A99-3A3F-3C44-B7C5-0D1FE4B0F440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="51200" yWindow="500" windowWidth="28800" windowHeight="50700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="11">
   <si>
     <t>序号</t>
   </si>
@@ -45,18 +51,34 @@
   <si>
     <t>n=10</t>
   </si>
+  <si>
+    <t>MCTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,19 +101,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -133,7 +164,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -165,9 +196,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -199,6 +248,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -374,14 +441,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D601"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A465" zoomScale="177" workbookViewId="0">
+      <selection activeCell="E506" sqref="E506:E513"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -501,7 +570,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>79.09999999999999</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -529,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>66.90000000000001</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -641,7 +710,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>73.90000000000001</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -725,7 +794,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>79.59999999999999</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -767,7 +836,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>74.90000000000001</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -851,7 +920,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>74.90000000000001</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -865,7 +934,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>81.90000000000001</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
@@ -893,7 +962,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>70.59999999999999</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -907,7 +976,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>85.09999999999999</v>
+        <v>85.1</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
@@ -921,7 +990,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>80.40000000000001</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -935,7 +1004,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>74.40000000000001</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -949,7 +1018,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>89.09999999999999</v>
+        <v>89.1</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -1019,7 +1088,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>70.09999999999999</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
@@ -1061,7 +1130,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>88.90000000000001</v>
+        <v>88.9</v>
       </c>
       <c r="C49" t="s">
         <v>4</v>
@@ -1089,7 +1158,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>79.90000000000001</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="C51" t="s">
         <v>4</v>
@@ -1131,7 +1200,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>75.09999999999999</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="C54" t="s">
         <v>4</v>
@@ -1201,7 +1270,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>70.59999999999999</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="C59" t="s">
         <v>4</v>
@@ -1243,7 +1312,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>70.40000000000001</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="C62" t="s">
         <v>4</v>
@@ -1257,7 +1326,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>64.90000000000001</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="C63" t="s">
         <v>4</v>
@@ -1271,7 +1340,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>88.40000000000001</v>
+        <v>88.4</v>
       </c>
       <c r="C64" t="s">
         <v>4</v>
@@ -1285,7 +1354,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>69.09999999999999</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="C65" t="s">
         <v>4</v>
@@ -1313,7 +1382,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>78.59999999999999</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="C67" t="s">
         <v>4</v>
@@ -1327,7 +1396,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>77.90000000000001</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="C68" t="s">
         <v>4</v>
@@ -1341,7 +1410,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>72.40000000000001</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="C69" t="s">
         <v>4</v>
@@ -1369,7 +1438,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>76.59999999999999</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="C71" t="s">
         <v>4</v>
@@ -1397,7 +1466,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>75.40000000000001</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="C73" t="s">
         <v>4</v>
@@ -1495,7 +1564,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>70.59999999999999</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="C80" t="s">
         <v>4</v>
@@ -1509,7 +1578,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>75.59999999999999</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="C81" t="s">
         <v>4</v>
@@ -1607,7 +1676,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>78.59999999999999</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="C88" t="s">
         <v>4</v>
@@ -1691,7 +1760,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>72.40000000000001</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="C94" t="s">
         <v>4</v>
@@ -1747,7 +1816,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>70.59999999999999</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="C98" t="s">
         <v>4</v>
@@ -1775,7 +1844,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>83.90000000000001</v>
+        <v>83.9</v>
       </c>
       <c r="C100" t="s">
         <v>4</v>
@@ -1803,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="B102">
-        <v>77.90000000000001</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -1831,7 +1900,7 @@
         <v>3</v>
       </c>
       <c r="B104">
-        <v>77.59999999999999</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -1845,7 +1914,7 @@
         <v>4</v>
       </c>
       <c r="B105">
-        <v>72.09999999999999</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -1873,7 +1942,7 @@
         <v>6</v>
       </c>
       <c r="B107">
-        <v>72.90000000000001</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -1915,7 +1984,7 @@
         <v>9</v>
       </c>
       <c r="B110">
-        <v>74.40000000000001</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -1943,7 +2012,7 @@
         <v>11</v>
       </c>
       <c r="B112">
-        <v>75.59999999999999</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -1971,7 +2040,7 @@
         <v>13</v>
       </c>
       <c r="B114">
-        <v>73.40000000000001</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -1999,7 +2068,7 @@
         <v>15</v>
       </c>
       <c r="B116">
-        <v>79.09999999999999</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2153,7 +2222,7 @@
         <v>26</v>
       </c>
       <c r="B127">
-        <v>80.59999999999999</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2195,7 +2264,7 @@
         <v>29</v>
       </c>
       <c r="B130">
-        <v>77.09999999999999</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2209,7 +2278,7 @@
         <v>30</v>
       </c>
       <c r="B131">
-        <v>81.40000000000001</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2223,7 +2292,7 @@
         <v>31</v>
       </c>
       <c r="B132">
-        <v>76.59999999999999</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -2237,7 +2306,7 @@
         <v>32</v>
       </c>
       <c r="B133">
-        <v>66.09999999999999</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -2265,7 +2334,7 @@
         <v>34</v>
       </c>
       <c r="B135">
-        <v>79.09999999999999</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -2279,7 +2348,7 @@
         <v>35</v>
       </c>
       <c r="B136">
-        <v>75.90000000000001</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -2307,7 +2376,7 @@
         <v>37</v>
       </c>
       <c r="B138">
-        <v>82.90000000000001</v>
+        <v>82.9</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -2335,7 +2404,7 @@
         <v>39</v>
       </c>
       <c r="B140">
-        <v>72.90000000000001</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -2419,7 +2488,7 @@
         <v>45</v>
       </c>
       <c r="B146">
-        <v>66.90000000000001</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -2447,7 +2516,7 @@
         <v>47</v>
       </c>
       <c r="B148">
-        <v>73.59999999999999</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -2489,7 +2558,7 @@
         <v>50</v>
       </c>
       <c r="B151">
-        <v>77.59999999999999</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -2531,7 +2600,7 @@
         <v>53</v>
       </c>
       <c r="B154">
-        <v>72.09999999999999</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -2587,7 +2656,7 @@
         <v>57</v>
       </c>
       <c r="B158">
-        <v>67.40000000000001</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -2615,7 +2684,7 @@
         <v>59</v>
       </c>
       <c r="B160">
-        <v>75.59999999999999</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -2699,7 +2768,7 @@
         <v>65</v>
       </c>
       <c r="B166">
-        <v>76.59999999999999</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -2713,7 +2782,7 @@
         <v>66</v>
       </c>
       <c r="B167">
-        <v>76.40000000000001</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -2797,7 +2866,7 @@
         <v>72</v>
       </c>
       <c r="B173">
-        <v>75.59999999999999</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -2825,7 +2894,7 @@
         <v>74</v>
       </c>
       <c r="B175">
-        <v>66.40000000000001</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -2895,7 +2964,7 @@
         <v>79</v>
       </c>
       <c r="B180">
-        <v>69.59999999999999</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -2937,7 +3006,7 @@
         <v>82</v>
       </c>
       <c r="B183">
-        <v>85.90000000000001</v>
+        <v>85.9</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3105,7 +3174,7 @@
         <v>94</v>
       </c>
       <c r="B195">
-        <v>76.59999999999999</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -3119,7 +3188,7 @@
         <v>95</v>
       </c>
       <c r="B196">
-        <v>72.09999999999999</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -3161,7 +3230,7 @@
         <v>98</v>
       </c>
       <c r="B199">
-        <v>64.59999999999999</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -3217,7 +3286,7 @@
         <v>2</v>
       </c>
       <c r="B203">
-        <v>86.59999999999999</v>
+        <v>86.6</v>
       </c>
       <c r="C203" t="s">
         <v>6</v>
@@ -3231,7 +3300,7 @@
         <v>3</v>
       </c>
       <c r="B204">
-        <v>77.40000000000001</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="C204" t="s">
         <v>6</v>
@@ -3259,7 +3328,7 @@
         <v>5</v>
       </c>
       <c r="B206">
-        <v>69.90000000000001</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="C206" t="s">
         <v>6</v>
@@ -3287,7 +3356,7 @@
         <v>7</v>
       </c>
       <c r="B208">
-        <v>72.59999999999999</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="C208" t="s">
         <v>6</v>
@@ -3329,7 +3398,7 @@
         <v>10</v>
       </c>
       <c r="B211">
-        <v>68.40000000000001</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="C211" t="s">
         <v>6</v>
@@ -3357,7 +3426,7 @@
         <v>12</v>
       </c>
       <c r="B213">
-        <v>80.90000000000001</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="C213" t="s">
         <v>6</v>
@@ -3371,7 +3440,7 @@
         <v>13</v>
       </c>
       <c r="B214">
-        <v>74.09999999999999</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="C214" t="s">
         <v>6</v>
@@ -3399,7 +3468,7 @@
         <v>15</v>
       </c>
       <c r="B216">
-        <v>77.09999999999999</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="C216" t="s">
         <v>6</v>
@@ -3413,7 +3482,7 @@
         <v>16</v>
       </c>
       <c r="B217">
-        <v>77.59999999999999</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="C217" t="s">
         <v>6</v>
@@ -3427,7 +3496,7 @@
         <v>17</v>
       </c>
       <c r="B218">
-        <v>74.90000000000001</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="C218" t="s">
         <v>6</v>
@@ -3441,7 +3510,7 @@
         <v>18</v>
       </c>
       <c r="B219">
-        <v>72.09999999999999</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="C219" t="s">
         <v>6</v>
@@ -3455,7 +3524,7 @@
         <v>19</v>
       </c>
       <c r="B220">
-        <v>65.40000000000001</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="C220" t="s">
         <v>6</v>
@@ -3483,7 +3552,7 @@
         <v>21</v>
       </c>
       <c r="B222">
-        <v>76.09999999999999</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="C222" t="s">
         <v>6</v>
@@ -3511,7 +3580,7 @@
         <v>23</v>
       </c>
       <c r="B224">
-        <v>70.40000000000001</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="C224" t="s">
         <v>6</v>
@@ -3525,7 +3594,7 @@
         <v>24</v>
       </c>
       <c r="B225">
-        <v>80.09999999999999</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="C225" t="s">
         <v>6</v>
@@ -3665,7 +3734,7 @@
         <v>34</v>
       </c>
       <c r="B235">
-        <v>82.59999999999999</v>
+        <v>82.6</v>
       </c>
       <c r="C235" t="s">
         <v>6</v>
@@ -3693,7 +3762,7 @@
         <v>36</v>
       </c>
       <c r="B237">
-        <v>71.09999999999999</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="C237" t="s">
         <v>6</v>
@@ -3735,7 +3804,7 @@
         <v>39</v>
       </c>
       <c r="B240">
-        <v>74.59999999999999</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="C240" t="s">
         <v>6</v>
@@ -3763,7 +3832,7 @@
         <v>41</v>
       </c>
       <c r="B242">
-        <v>76.90000000000001</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="C242" t="s">
         <v>6</v>
@@ -3791,7 +3860,7 @@
         <v>43</v>
       </c>
       <c r="B244">
-        <v>77.40000000000001</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="C244" t="s">
         <v>6</v>
@@ -3875,7 +3944,7 @@
         <v>49</v>
       </c>
       <c r="B250">
-        <v>76.09999999999999</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="C250" t="s">
         <v>6</v>
@@ -3889,7 +3958,7 @@
         <v>50</v>
       </c>
       <c r="B251">
-        <v>78.09999999999999</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="C251" t="s">
         <v>6</v>
@@ -3917,7 +3986,7 @@
         <v>52</v>
       </c>
       <c r="B253">
-        <v>70.40000000000001</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="C253" t="s">
         <v>6</v>
@@ -3959,7 +4028,7 @@
         <v>55</v>
       </c>
       <c r="B256">
-        <v>71.90000000000001</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="C256" t="s">
         <v>6</v>
@@ -3987,7 +4056,7 @@
         <v>57</v>
       </c>
       <c r="B258">
-        <v>68.09999999999999</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="C258" t="s">
         <v>6</v>
@@ -4001,7 +4070,7 @@
         <v>58</v>
       </c>
       <c r="B259">
-        <v>72.40000000000001</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="C259" t="s">
         <v>6</v>
@@ -4085,7 +4154,7 @@
         <v>64</v>
       </c>
       <c r="B265">
-        <v>70.09999999999999</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="C265" t="s">
         <v>6</v>
@@ -4099,7 +4168,7 @@
         <v>65</v>
       </c>
       <c r="B266">
-        <v>76.59999999999999</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="C266" t="s">
         <v>6</v>
@@ -4113,7 +4182,7 @@
         <v>66</v>
       </c>
       <c r="B267">
-        <v>75.59999999999999</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="C267" t="s">
         <v>6</v>
@@ -4141,7 +4210,7 @@
         <v>68</v>
       </c>
       <c r="B269">
-        <v>69.40000000000001</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="C269" t="s">
         <v>6</v>
@@ -4183,7 +4252,7 @@
         <v>71</v>
       </c>
       <c r="B272">
-        <v>71.09999999999999</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="C272" t="s">
         <v>6</v>
@@ -4239,7 +4308,7 @@
         <v>75</v>
       </c>
       <c r="B276">
-        <v>77.59999999999999</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="C276" t="s">
         <v>6</v>
@@ -4267,7 +4336,7 @@
         <v>77</v>
       </c>
       <c r="B278">
-        <v>75.40000000000001</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="C278" t="s">
         <v>6</v>
@@ -4281,7 +4350,7 @@
         <v>78</v>
       </c>
       <c r="B279">
-        <v>67.40000000000001</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="C279" t="s">
         <v>6</v>
@@ -4295,7 +4364,7 @@
         <v>79</v>
       </c>
       <c r="B280">
-        <v>68.40000000000001</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="C280" t="s">
         <v>6</v>
@@ -4309,7 +4378,7 @@
         <v>80</v>
       </c>
       <c r="B281">
-        <v>73.59999999999999</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="C281" t="s">
         <v>6</v>
@@ -4393,7 +4462,7 @@
         <v>86</v>
       </c>
       <c r="B287">
-        <v>78.40000000000001</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="C287" t="s">
         <v>6</v>
@@ -4449,7 +4518,7 @@
         <v>90</v>
       </c>
       <c r="B291">
-        <v>67.09999999999999</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="C291" t="s">
         <v>6</v>
@@ -4463,7 +4532,7 @@
         <v>91</v>
       </c>
       <c r="B292">
-        <v>67.90000000000001</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="C292" t="s">
         <v>6</v>
@@ -4505,7 +4574,7 @@
         <v>94</v>
       </c>
       <c r="B295">
-        <v>76.59999999999999</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="C295" t="s">
         <v>6</v>
@@ -4533,7 +4602,7 @@
         <v>96</v>
       </c>
       <c r="B297">
-        <v>75.90000000000001</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="C297" t="s">
         <v>6</v>
@@ -4561,7 +4630,7 @@
         <v>98</v>
       </c>
       <c r="B299">
-        <v>67.59999999999999</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="C299" t="s">
         <v>6</v>
@@ -4575,7 +4644,7 @@
         <v>99</v>
       </c>
       <c r="B300">
-        <v>79.09999999999999</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="C300" t="s">
         <v>6</v>
@@ -4589,7 +4658,7 @@
         <v>100</v>
       </c>
       <c r="B301">
-        <v>68.59999999999999</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="C301" t="s">
         <v>6</v>
@@ -4897,7 +4966,7 @@
         <v>22</v>
       </c>
       <c r="B323">
-        <v>99.09999999999999</v>
+        <v>99.1</v>
       </c>
       <c r="C323" t="s">
         <v>7</v>
@@ -5233,7 +5302,7 @@
         <v>46</v>
       </c>
       <c r="B347">
-        <v>93.09999999999999</v>
+        <v>93.1</v>
       </c>
       <c r="C347" t="s">
         <v>7</v>
@@ -5247,7 +5316,7 @@
         <v>47</v>
       </c>
       <c r="B348">
-        <v>98.59999999999999</v>
+        <v>98.6</v>
       </c>
       <c r="C348" t="s">
         <v>7</v>
@@ -5401,7 +5470,7 @@
         <v>58</v>
       </c>
       <c r="B359">
-        <v>88.90000000000001</v>
+        <v>88.9</v>
       </c>
       <c r="C359" t="s">
         <v>7</v>
@@ -5443,7 +5512,7 @@
         <v>61</v>
       </c>
       <c r="B362">
-        <v>97.40000000000001</v>
+        <v>97.4</v>
       </c>
       <c r="C362" t="s">
         <v>7</v>
@@ -5485,7 +5554,7 @@
         <v>64</v>
       </c>
       <c r="B365">
-        <v>87.90000000000001</v>
+        <v>87.9</v>
       </c>
       <c r="C365" t="s">
         <v>7</v>
@@ -5583,7 +5652,7 @@
         <v>71</v>
       </c>
       <c r="B372">
-        <v>90.40000000000001</v>
+        <v>90.4</v>
       </c>
       <c r="C372" t="s">
         <v>7</v>
@@ -5681,7 +5750,7 @@
         <v>78</v>
       </c>
       <c r="B379">
-        <v>92.90000000000001</v>
+        <v>92.9</v>
       </c>
       <c r="C379" t="s">
         <v>7</v>
@@ -5695,7 +5764,7 @@
         <v>79</v>
       </c>
       <c r="B380">
-        <v>84.59999999999999</v>
+        <v>84.6</v>
       </c>
       <c r="C380" t="s">
         <v>7</v>
@@ -5709,7 +5778,7 @@
         <v>80</v>
       </c>
       <c r="B381">
-        <v>95.90000000000001</v>
+        <v>95.9</v>
       </c>
       <c r="C381" t="s">
         <v>7</v>
@@ -5723,7 +5792,7 @@
         <v>81</v>
       </c>
       <c r="B382">
-        <v>95.90000000000001</v>
+        <v>95.9</v>
       </c>
       <c r="C382" t="s">
         <v>7</v>
@@ -5821,7 +5890,7 @@
         <v>88</v>
       </c>
       <c r="B389">
-        <v>92.09999999999999</v>
+        <v>92.1</v>
       </c>
       <c r="C389" t="s">
         <v>7</v>
@@ -5849,7 +5918,7 @@
         <v>90</v>
       </c>
       <c r="B391">
-        <v>91.90000000000001</v>
+        <v>91.9</v>
       </c>
       <c r="C391" t="s">
         <v>7</v>
@@ -5919,7 +5988,7 @@
         <v>95</v>
       </c>
       <c r="B396">
-        <v>99.09999999999999</v>
+        <v>99.1</v>
       </c>
       <c r="C396" t="s">
         <v>7</v>
@@ -5933,7 +6002,7 @@
         <v>96</v>
       </c>
       <c r="B397">
-        <v>99.40000000000001</v>
+        <v>99.4</v>
       </c>
       <c r="C397" t="s">
         <v>7</v>
@@ -5961,7 +6030,7 @@
         <v>98</v>
       </c>
       <c r="B399">
-        <v>99.40000000000001</v>
+        <v>99.4</v>
       </c>
       <c r="C399" t="s">
         <v>7</v>
@@ -5989,7 +6058,7 @@
         <v>100</v>
       </c>
       <c r="B401">
-        <v>93.40000000000001</v>
+        <v>93.4</v>
       </c>
       <c r="C401" t="s">
         <v>7</v>
@@ -6002,6 +6071,9 @@
       <c r="A402">
         <v>1</v>
       </c>
+      <c r="B402" s="1">
+        <v>75</v>
+      </c>
       <c r="C402" t="s">
         <v>8</v>
       </c>
@@ -6013,6 +6085,9 @@
       <c r="A403">
         <v>2</v>
       </c>
+      <c r="B403" s="1">
+        <v>81.900000000000006</v>
+      </c>
       <c r="C403" t="s">
         <v>8</v>
       </c>
@@ -6024,6 +6099,9 @@
       <c r="A404">
         <v>3</v>
       </c>
+      <c r="B404" s="1">
+        <v>74.7</v>
+      </c>
       <c r="C404" t="s">
         <v>8</v>
       </c>
@@ -6035,6 +6113,9 @@
       <c r="A405">
         <v>4</v>
       </c>
+      <c r="B405" s="1">
+        <v>69.400000000000006</v>
+      </c>
       <c r="C405" t="s">
         <v>8</v>
       </c>
@@ -6046,6 +6127,9 @@
       <c r="A406">
         <v>5</v>
       </c>
+      <c r="B406" s="1">
+        <v>69.599999999999994</v>
+      </c>
       <c r="C406" t="s">
         <v>8</v>
       </c>
@@ -6057,6 +6141,9 @@
       <c r="A407">
         <v>6</v>
       </c>
+      <c r="B407" s="1">
+        <v>71.7</v>
+      </c>
       <c r="C407" t="s">
         <v>8</v>
       </c>
@@ -6068,6 +6155,9 @@
       <c r="A408">
         <v>7</v>
       </c>
+      <c r="B408" s="1">
+        <v>73.8</v>
+      </c>
       <c r="C408" t="s">
         <v>8</v>
       </c>
@@ -6079,6 +6169,9 @@
       <c r="A409">
         <v>8</v>
       </c>
+      <c r="B409" s="1">
+        <v>75</v>
+      </c>
       <c r="C409" t="s">
         <v>8</v>
       </c>
@@ -6090,6 +6183,9 @@
       <c r="A410">
         <v>9</v>
       </c>
+      <c r="B410" s="1">
+        <v>74.5</v>
+      </c>
       <c r="C410" t="s">
         <v>8</v>
       </c>
@@ -6100,6 +6196,9 @@
     <row r="411" spans="1:4">
       <c r="A411">
         <v>10</v>
+      </c>
+      <c r="B411" s="1">
+        <v>65</v>
       </c>
       <c r="C411" t="s">
         <v>8</v>
@@ -6112,6 +6211,9 @@
       <c r="A412">
         <v>11</v>
       </c>
+      <c r="B412" s="1">
+        <v>75</v>
+      </c>
       <c r="C412" t="s">
         <v>8</v>
       </c>
@@ -6123,6 +6225,9 @@
       <c r="A413">
         <v>12</v>
       </c>
+      <c r="B413" s="1">
+        <v>79.5</v>
+      </c>
       <c r="C413" t="s">
         <v>8</v>
       </c>
@@ -6134,6 +6239,9 @@
       <c r="A414">
         <v>13</v>
       </c>
+      <c r="B414" s="1">
+        <v>72.099999999999994</v>
+      </c>
       <c r="C414" t="s">
         <v>8</v>
       </c>
@@ -6145,6 +6253,9 @@
       <c r="A415">
         <v>14</v>
       </c>
+      <c r="B415" s="1">
+        <v>74.2</v>
+      </c>
       <c r="C415" t="s">
         <v>8</v>
       </c>
@@ -6156,6 +6267,9 @@
       <c r="A416">
         <v>15</v>
       </c>
+      <c r="B416" s="1">
+        <v>80.3</v>
+      </c>
       <c r="C416" t="s">
         <v>8</v>
       </c>
@@ -6167,6 +6281,9 @@
       <c r="A417">
         <v>16</v>
       </c>
+      <c r="B417" s="1">
+        <v>77.099999999999994</v>
+      </c>
       <c r="C417" t="s">
         <v>8</v>
       </c>
@@ -6178,6 +6295,9 @@
       <c r="A418">
         <v>17</v>
       </c>
+      <c r="B418" s="1">
+        <v>72</v>
+      </c>
       <c r="C418" t="s">
         <v>8</v>
       </c>
@@ -6189,6 +6309,9 @@
       <c r="A419">
         <v>18</v>
       </c>
+      <c r="B419" s="1">
+        <v>71</v>
+      </c>
       <c r="C419" t="s">
         <v>8</v>
       </c>
@@ -6200,6 +6323,9 @@
       <c r="A420">
         <v>19</v>
       </c>
+      <c r="B420" s="1">
+        <v>65.400000000000006</v>
+      </c>
       <c r="C420" t="s">
         <v>8</v>
       </c>
@@ -6211,6 +6337,9 @@
       <c r="A421">
         <v>20</v>
       </c>
+      <c r="B421" s="1">
+        <v>71.599999999999994</v>
+      </c>
       <c r="C421" t="s">
         <v>8</v>
       </c>
@@ -6222,6 +6351,9 @@
       <c r="A422">
         <v>21</v>
       </c>
+      <c r="B422" s="1">
+        <v>71.7</v>
+      </c>
       <c r="C422" t="s">
         <v>8</v>
       </c>
@@ -6233,6 +6365,9 @@
       <c r="A423">
         <v>22</v>
       </c>
+      <c r="B423" s="1">
+        <v>70.7</v>
+      </c>
       <c r="C423" t="s">
         <v>8</v>
       </c>
@@ -6244,6 +6379,9 @@
       <c r="A424">
         <v>23</v>
       </c>
+      <c r="B424" s="1">
+        <v>66.599999999999994</v>
+      </c>
       <c r="C424" t="s">
         <v>8</v>
       </c>
@@ -6255,6 +6393,9 @@
       <c r="A425">
         <v>24</v>
       </c>
+      <c r="B425" s="1">
+        <v>79.8</v>
+      </c>
       <c r="C425" t="s">
         <v>8</v>
       </c>
@@ -6266,6 +6407,9 @@
       <c r="A426">
         <v>25</v>
       </c>
+      <c r="B426" s="1">
+        <v>73.2</v>
+      </c>
       <c r="C426" t="s">
         <v>8</v>
       </c>
@@ -6277,6 +6421,9 @@
       <c r="A427">
         <v>26</v>
       </c>
+      <c r="B427" s="1">
+        <v>78.5</v>
+      </c>
       <c r="C427" t="s">
         <v>8</v>
       </c>
@@ -6288,6 +6435,9 @@
       <c r="A428">
         <v>27</v>
       </c>
+      <c r="B428" s="1">
+        <v>82.8</v>
+      </c>
       <c r="C428" t="s">
         <v>8</v>
       </c>
@@ -6299,6 +6449,9 @@
       <c r="A429">
         <v>28</v>
       </c>
+      <c r="B429" s="1">
+        <v>85.7</v>
+      </c>
       <c r="C429" t="s">
         <v>8</v>
       </c>
@@ -6310,6 +6463,9 @@
       <c r="A430">
         <v>29</v>
       </c>
+      <c r="B430" s="1">
+        <v>76.8</v>
+      </c>
       <c r="C430" t="s">
         <v>8</v>
       </c>
@@ -6321,6 +6477,9 @@
       <c r="A431">
         <v>30</v>
       </c>
+      <c r="B431" s="1">
+        <v>80.2</v>
+      </c>
       <c r="C431" t="s">
         <v>8</v>
       </c>
@@ -6332,6 +6491,9 @@
       <c r="A432">
         <v>31</v>
       </c>
+      <c r="B432" s="1">
+        <v>76.7</v>
+      </c>
       <c r="C432" t="s">
         <v>8</v>
       </c>
@@ -6343,6 +6505,9 @@
       <c r="A433">
         <v>32</v>
       </c>
+      <c r="B433" s="1">
+        <v>64.3</v>
+      </c>
       <c r="C433" t="s">
         <v>8</v>
       </c>
@@ -6354,6 +6519,9 @@
       <c r="A434">
         <v>33</v>
       </c>
+      <c r="B434" s="1">
+        <v>71.599999999999994</v>
+      </c>
       <c r="C434" t="s">
         <v>8</v>
       </c>
@@ -6365,6 +6533,9 @@
       <c r="A435">
         <v>34</v>
       </c>
+      <c r="B435" s="1">
+        <v>83.2</v>
+      </c>
       <c r="C435" t="s">
         <v>8</v>
       </c>
@@ -6376,6 +6547,9 @@
       <c r="A436">
         <v>35</v>
       </c>
+      <c r="B436" s="1">
+        <v>75.099999999999994</v>
+      </c>
       <c r="C436" t="s">
         <v>8</v>
       </c>
@@ -6387,6 +6561,9 @@
       <c r="A437">
         <v>36</v>
       </c>
+      <c r="B437" s="1">
+        <v>66.7</v>
+      </c>
       <c r="C437" t="s">
         <v>8</v>
       </c>
@@ -6398,6 +6575,9 @@
       <c r="A438">
         <v>37</v>
       </c>
+      <c r="B438" s="1">
+        <v>85.9</v>
+      </c>
       <c r="C438" t="s">
         <v>8</v>
       </c>
@@ -6409,6 +6589,9 @@
       <c r="A439">
         <v>38</v>
       </c>
+      <c r="B439" s="1">
+        <v>79.8</v>
+      </c>
       <c r="C439" t="s">
         <v>8</v>
       </c>
@@ -6420,6 +6603,9 @@
       <c r="A440">
         <v>39</v>
       </c>
+      <c r="B440" s="1">
+        <v>73.5</v>
+      </c>
       <c r="C440" t="s">
         <v>8</v>
       </c>
@@ -6431,6 +6617,9 @@
       <c r="A441">
         <v>40</v>
       </c>
+      <c r="B441" s="1">
+        <v>85</v>
+      </c>
       <c r="C441" t="s">
         <v>8</v>
       </c>
@@ -6442,6 +6631,9 @@
       <c r="A442">
         <v>41</v>
       </c>
+      <c r="B442" s="1">
+        <v>73.5</v>
+      </c>
       <c r="C442" t="s">
         <v>8</v>
       </c>
@@ -6453,6 +6645,9 @@
       <c r="A443">
         <v>42</v>
       </c>
+      <c r="B443" s="1">
+        <v>75.2</v>
+      </c>
       <c r="C443" t="s">
         <v>8</v>
       </c>
@@ -6464,6 +6659,9 @@
       <c r="A444">
         <v>43</v>
       </c>
+      <c r="B444" s="1">
+        <v>78</v>
+      </c>
       <c r="C444" t="s">
         <v>8</v>
       </c>
@@ -6475,6 +6673,9 @@
       <c r="A445">
         <v>44</v>
       </c>
+      <c r="B445" s="1">
+        <v>75.7</v>
+      </c>
       <c r="C445" t="s">
         <v>8</v>
       </c>
@@ -6486,6 +6687,9 @@
       <c r="A446">
         <v>45</v>
       </c>
+      <c r="B446" s="1">
+        <v>68</v>
+      </c>
       <c r="C446" t="s">
         <v>8</v>
       </c>
@@ -6497,6 +6701,9 @@
       <c r="A447">
         <v>46</v>
       </c>
+      <c r="B447" s="1">
+        <v>69.5</v>
+      </c>
       <c r="C447" t="s">
         <v>8</v>
       </c>
@@ -6508,6 +6715,9 @@
       <c r="A448">
         <v>47</v>
       </c>
+      <c r="B448" s="1">
+        <v>75.099999999999994</v>
+      </c>
       <c r="C448" t="s">
         <v>8</v>
       </c>
@@ -6519,6 +6729,9 @@
       <c r="A449">
         <v>48</v>
       </c>
+      <c r="B449" s="1">
+        <v>88.6</v>
+      </c>
       <c r="C449" t="s">
         <v>8</v>
       </c>
@@ -6530,6 +6743,9 @@
       <c r="A450">
         <v>49</v>
       </c>
+      <c r="B450" s="1">
+        <v>73.3</v>
+      </c>
       <c r="C450" t="s">
         <v>8</v>
       </c>
@@ -6541,6 +6757,9 @@
       <c r="A451">
         <v>50</v>
       </c>
+      <c r="B451" s="1">
+        <v>77.7</v>
+      </c>
       <c r="C451" t="s">
         <v>8</v>
       </c>
@@ -6552,6 +6771,9 @@
       <c r="A452">
         <v>51</v>
       </c>
+      <c r="B452" s="1">
+        <v>75.7</v>
+      </c>
       <c r="C452" t="s">
         <v>8</v>
       </c>
@@ -6563,6 +6785,9 @@
       <c r="A453">
         <v>52</v>
       </c>
+      <c r="B453" s="1">
+        <v>68.2</v>
+      </c>
       <c r="C453" t="s">
         <v>8</v>
       </c>
@@ -6574,6 +6799,9 @@
       <c r="A454">
         <v>53</v>
       </c>
+      <c r="B454" s="1">
+        <v>74.099999999999994</v>
+      </c>
       <c r="C454" t="s">
         <v>8</v>
       </c>
@@ -6585,6 +6813,9 @@
       <c r="A455">
         <v>54</v>
       </c>
+      <c r="B455" s="1">
+        <v>60.7</v>
+      </c>
       <c r="C455" t="s">
         <v>8</v>
       </c>
@@ -6596,6 +6827,9 @@
       <c r="A456">
         <v>55</v>
       </c>
+      <c r="B456" s="1">
+        <v>70.900000000000006</v>
+      </c>
       <c r="C456" t="s">
         <v>8</v>
       </c>
@@ -6607,6 +6841,9 @@
       <c r="A457">
         <v>56</v>
       </c>
+      <c r="B457" s="1">
+        <v>89.1</v>
+      </c>
       <c r="C457" t="s">
         <v>8</v>
       </c>
@@ -6618,6 +6855,9 @@
       <c r="A458">
         <v>57</v>
       </c>
+      <c r="B458" s="1">
+        <v>67.099999999999994</v>
+      </c>
       <c r="C458" t="s">
         <v>8</v>
       </c>
@@ -6629,6 +6869,9 @@
       <c r="A459">
         <v>58</v>
       </c>
+      <c r="B459" s="1">
+        <v>68.5</v>
+      </c>
       <c r="C459" t="s">
         <v>8</v>
       </c>
@@ -6640,6 +6883,9 @@
       <c r="A460">
         <v>59</v>
       </c>
+      <c r="B460" s="1">
+        <v>74.5</v>
+      </c>
       <c r="C460" t="s">
         <v>8</v>
       </c>
@@ -6651,6 +6897,9 @@
       <c r="A461">
         <v>60</v>
       </c>
+      <c r="B461" s="1">
+        <v>61</v>
+      </c>
       <c r="C461" t="s">
         <v>8</v>
       </c>
@@ -6662,6 +6911,9 @@
       <c r="A462">
         <v>61</v>
       </c>
+      <c r="B462" s="1">
+        <v>70.099999999999994</v>
+      </c>
       <c r="C462" t="s">
         <v>8</v>
       </c>
@@ -6673,6 +6925,9 @@
       <c r="A463">
         <v>62</v>
       </c>
+      <c r="B463" s="1">
+        <v>64</v>
+      </c>
       <c r="C463" t="s">
         <v>8</v>
       </c>
@@ -6684,6 +6939,9 @@
       <c r="A464">
         <v>63</v>
       </c>
+      <c r="B464" s="1">
+        <v>84.6</v>
+      </c>
       <c r="C464" t="s">
         <v>8</v>
       </c>
@@ -6695,6 +6953,9 @@
       <c r="A465">
         <v>64</v>
       </c>
+      <c r="B465" s="1">
+        <v>69.5</v>
+      </c>
       <c r="C465" t="s">
         <v>8</v>
       </c>
@@ -6706,6 +6967,9 @@
       <c r="A466">
         <v>65</v>
       </c>
+      <c r="B466" s="1">
+        <v>74.400000000000006</v>
+      </c>
       <c r="C466" t="s">
         <v>8</v>
       </c>
@@ -6717,6 +6981,9 @@
       <c r="A467">
         <v>66</v>
       </c>
+      <c r="B467" s="1">
+        <v>73.2</v>
+      </c>
       <c r="C467" t="s">
         <v>8</v>
       </c>
@@ -6728,6 +6995,9 @@
       <c r="A468">
         <v>67</v>
       </c>
+      <c r="B468" s="1">
+        <v>77.7</v>
+      </c>
       <c r="C468" t="s">
         <v>8</v>
       </c>
@@ -6739,6 +7009,9 @@
       <c r="A469">
         <v>68</v>
       </c>
+      <c r="B469" s="1">
+        <v>71.8</v>
+      </c>
       <c r="C469" t="s">
         <v>8</v>
       </c>
@@ -6750,6 +7023,9 @@
       <c r="A470">
         <v>69</v>
       </c>
+      <c r="B470" s="1">
+        <v>72</v>
+      </c>
       <c r="C470" t="s">
         <v>8</v>
       </c>
@@ -6761,6 +7037,9 @@
       <c r="A471">
         <v>70</v>
       </c>
+      <c r="B471" s="1">
+        <v>76.2</v>
+      </c>
       <c r="C471" t="s">
         <v>8</v>
       </c>
@@ -6772,6 +7051,9 @@
       <c r="A472">
         <v>71</v>
       </c>
+      <c r="B472" s="1">
+        <v>69.7</v>
+      </c>
       <c r="C472" t="s">
         <v>8</v>
       </c>
@@ -6783,6 +7065,9 @@
       <c r="A473">
         <v>72</v>
       </c>
+      <c r="B473" s="1">
+        <v>75.5</v>
+      </c>
       <c r="C473" t="s">
         <v>8</v>
       </c>
@@ -6794,6 +7079,9 @@
       <c r="A474">
         <v>73</v>
       </c>
+      <c r="B474" s="1">
+        <v>68.8</v>
+      </c>
       <c r="C474" t="s">
         <v>8</v>
       </c>
@@ -6805,6 +7093,9 @@
       <c r="A475">
         <v>74</v>
       </c>
+      <c r="B475" s="1">
+        <v>70.099999999999994</v>
+      </c>
       <c r="C475" t="s">
         <v>8</v>
       </c>
@@ -6816,6 +7107,9 @@
       <c r="A476">
         <v>75</v>
       </c>
+      <c r="B476" s="1">
+        <v>73.5</v>
+      </c>
       <c r="C476" t="s">
         <v>8</v>
       </c>
@@ -6827,6 +7121,9 @@
       <c r="A477">
         <v>76</v>
       </c>
+      <c r="B477" s="1">
+        <v>73.2</v>
+      </c>
       <c r="C477" t="s">
         <v>8</v>
       </c>
@@ -6838,6 +7135,9 @@
       <c r="A478">
         <v>77</v>
       </c>
+      <c r="B478" s="1">
+        <v>71.7</v>
+      </c>
       <c r="C478" t="s">
         <v>8</v>
       </c>
@@ -6849,6 +7149,9 @@
       <c r="A479">
         <v>78</v>
       </c>
+      <c r="B479" s="1">
+        <v>68.599999999999994</v>
+      </c>
       <c r="C479" t="s">
         <v>8</v>
       </c>
@@ -6860,6 +7163,9 @@
       <c r="A480">
         <v>79</v>
       </c>
+      <c r="B480" s="1">
+        <v>68.599999999999994</v>
+      </c>
       <c r="C480" t="s">
         <v>8</v>
       </c>
@@ -6871,6 +7177,9 @@
       <c r="A481">
         <v>80</v>
       </c>
+      <c r="B481" s="1">
+        <v>73.099999999999994</v>
+      </c>
       <c r="C481" t="s">
         <v>8</v>
       </c>
@@ -6882,6 +7191,9 @@
       <c r="A482">
         <v>81</v>
       </c>
+      <c r="B482" s="1">
+        <v>66.2</v>
+      </c>
       <c r="C482" t="s">
         <v>8</v>
       </c>
@@ -6893,6 +7205,9 @@
       <c r="A483">
         <v>82</v>
       </c>
+      <c r="B483" s="1">
+        <v>82.2</v>
+      </c>
       <c r="C483" t="s">
         <v>8</v>
       </c>
@@ -6904,6 +7219,9 @@
       <c r="A484">
         <v>83</v>
       </c>
+      <c r="B484" s="1">
+        <v>72.400000000000006</v>
+      </c>
       <c r="C484" t="s">
         <v>8</v>
       </c>
@@ -6915,6 +7233,9 @@
       <c r="A485">
         <v>84</v>
       </c>
+      <c r="B485" s="1">
+        <v>72.3</v>
+      </c>
       <c r="C485" t="s">
         <v>8</v>
       </c>
@@ -6926,6 +7247,9 @@
       <c r="A486">
         <v>85</v>
       </c>
+      <c r="B486" s="1">
+        <v>74.400000000000006</v>
+      </c>
       <c r="C486" t="s">
         <v>8</v>
       </c>
@@ -6937,6 +7261,9 @@
       <c r="A487">
         <v>86</v>
       </c>
+      <c r="B487" s="1">
+        <v>79.599999999999994</v>
+      </c>
       <c r="C487" t="s">
         <v>8</v>
       </c>
@@ -6948,6 +7275,9 @@
       <c r="A488">
         <v>87</v>
       </c>
+      <c r="B488" s="1">
+        <v>73.400000000000006</v>
+      </c>
       <c r="C488" t="s">
         <v>8</v>
       </c>
@@ -6959,6 +7289,9 @@
       <c r="A489">
         <v>88</v>
       </c>
+      <c r="B489" s="1">
+        <v>63.3</v>
+      </c>
       <c r="C489" t="s">
         <v>8</v>
       </c>
@@ -6970,6 +7303,9 @@
       <c r="A490">
         <v>89</v>
       </c>
+      <c r="B490" s="1">
+        <v>75.900000000000006</v>
+      </c>
       <c r="C490" t="s">
         <v>8</v>
       </c>
@@ -6981,6 +7317,9 @@
       <c r="A491">
         <v>90</v>
       </c>
+      <c r="B491" s="1">
+        <v>66.599999999999994</v>
+      </c>
       <c r="C491" t="s">
         <v>8</v>
       </c>
@@ -6992,6 +7331,9 @@
       <c r="A492">
         <v>91</v>
       </c>
+      <c r="B492" s="1">
+        <v>66.5</v>
+      </c>
       <c r="C492" t="s">
         <v>8</v>
       </c>
@@ -7003,6 +7345,9 @@
       <c r="A493">
         <v>92</v>
       </c>
+      <c r="B493" s="1">
+        <v>69.599999999999994</v>
+      </c>
       <c r="C493" t="s">
         <v>8</v>
       </c>
@@ -7014,6 +7359,9 @@
       <c r="A494">
         <v>93</v>
       </c>
+      <c r="B494" s="1">
+        <v>71.2</v>
+      </c>
       <c r="C494" t="s">
         <v>8</v>
       </c>
@@ -7025,6 +7373,9 @@
       <c r="A495">
         <v>94</v>
       </c>
+      <c r="B495" s="1">
+        <v>74.8</v>
+      </c>
       <c r="C495" t="s">
         <v>8</v>
       </c>
@@ -7036,6 +7387,9 @@
       <c r="A496">
         <v>95</v>
       </c>
+      <c r="B496" s="1">
+        <v>70.5</v>
+      </c>
       <c r="C496" t="s">
         <v>8</v>
       </c>
@@ -7047,6 +7401,9 @@
       <c r="A497">
         <v>96</v>
       </c>
+      <c r="B497" s="1">
+        <v>76.7</v>
+      </c>
       <c r="C497" t="s">
         <v>8</v>
       </c>
@@ -7058,6 +7415,9 @@
       <c r="A498">
         <v>97</v>
       </c>
+      <c r="B498" s="1">
+        <v>67.7</v>
+      </c>
       <c r="C498" t="s">
         <v>8</v>
       </c>
@@ -7069,6 +7429,9 @@
       <c r="A499">
         <v>98</v>
       </c>
+      <c r="B499" s="1">
+        <v>66.599999999999994</v>
+      </c>
       <c r="C499" t="s">
         <v>8</v>
       </c>
@@ -7080,6 +7443,9 @@
       <c r="A500">
         <v>99</v>
       </c>
+      <c r="B500" s="1">
+        <v>78.099999999999994</v>
+      </c>
       <c r="C500" t="s">
         <v>8</v>
       </c>
@@ -7091,6 +7457,9 @@
       <c r="A501">
         <v>100</v>
       </c>
+      <c r="B501" s="1">
+        <v>68.2</v>
+      </c>
       <c r="C501" t="s">
         <v>8</v>
       </c>
@@ -7098,7 +7467,1108 @@
         <v>9</v>
       </c>
     </row>
+    <row r="502" spans="1:4">
+      <c r="A502">
+        <v>1</v>
+      </c>
+      <c r="C502" t="s">
+        <v>10</v>
+      </c>
+      <c r="D502" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="A503">
+        <v>2</v>
+      </c>
+      <c r="C503" t="s">
+        <v>10</v>
+      </c>
+      <c r="D503" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="A504">
+        <v>3</v>
+      </c>
+      <c r="C504" t="s">
+        <v>10</v>
+      </c>
+      <c r="D504" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
+      <c r="A505">
+        <v>4</v>
+      </c>
+      <c r="C505" t="s">
+        <v>10</v>
+      </c>
+      <c r="D505" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506">
+        <v>5</v>
+      </c>
+      <c r="C506" t="s">
+        <v>10</v>
+      </c>
+      <c r="D506" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
+      <c r="A507">
+        <v>6</v>
+      </c>
+      <c r="C507" t="s">
+        <v>10</v>
+      </c>
+      <c r="D507" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508">
+        <v>7</v>
+      </c>
+      <c r="C508" t="s">
+        <v>10</v>
+      </c>
+      <c r="D508" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="A509">
+        <v>8</v>
+      </c>
+      <c r="C509" t="s">
+        <v>10</v>
+      </c>
+      <c r="D509" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510">
+        <v>9</v>
+      </c>
+      <c r="C510" t="s">
+        <v>10</v>
+      </c>
+      <c r="D510" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
+      <c r="A511">
+        <v>10</v>
+      </c>
+      <c r="C511" t="s">
+        <v>10</v>
+      </c>
+      <c r="D511" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4">
+      <c r="A512">
+        <v>11</v>
+      </c>
+      <c r="C512" t="s">
+        <v>10</v>
+      </c>
+      <c r="D512" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
+      <c r="A513">
+        <v>12</v>
+      </c>
+      <c r="C513" t="s">
+        <v>10</v>
+      </c>
+      <c r="D513" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
+      <c r="A514">
+        <v>13</v>
+      </c>
+      <c r="C514" t="s">
+        <v>10</v>
+      </c>
+      <c r="D514" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
+      <c r="A515">
+        <v>14</v>
+      </c>
+      <c r="C515" t="s">
+        <v>10</v>
+      </c>
+      <c r="D515" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
+      <c r="A516">
+        <v>15</v>
+      </c>
+      <c r="C516" t="s">
+        <v>10</v>
+      </c>
+      <c r="D516" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
+      <c r="A517">
+        <v>16</v>
+      </c>
+      <c r="C517" t="s">
+        <v>10</v>
+      </c>
+      <c r="D517" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
+      <c r="A518">
+        <v>17</v>
+      </c>
+      <c r="C518" t="s">
+        <v>10</v>
+      </c>
+      <c r="D518" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
+      <c r="A519">
+        <v>18</v>
+      </c>
+      <c r="C519" t="s">
+        <v>10</v>
+      </c>
+      <c r="D519" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
+      <c r="A520">
+        <v>19</v>
+      </c>
+      <c r="C520" t="s">
+        <v>10</v>
+      </c>
+      <c r="D520" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="A521">
+        <v>20</v>
+      </c>
+      <c r="C521" t="s">
+        <v>10</v>
+      </c>
+      <c r="D521" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="A522">
+        <v>21</v>
+      </c>
+      <c r="C522" t="s">
+        <v>10</v>
+      </c>
+      <c r="D522" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
+      <c r="A523">
+        <v>22</v>
+      </c>
+      <c r="C523" t="s">
+        <v>10</v>
+      </c>
+      <c r="D523" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
+      <c r="A524">
+        <v>23</v>
+      </c>
+      <c r="C524" t="s">
+        <v>10</v>
+      </c>
+      <c r="D524" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4">
+      <c r="A525">
+        <v>24</v>
+      </c>
+      <c r="C525" t="s">
+        <v>10</v>
+      </c>
+      <c r="D525" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4">
+      <c r="A526">
+        <v>25</v>
+      </c>
+      <c r="C526" t="s">
+        <v>10</v>
+      </c>
+      <c r="D526" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4">
+      <c r="A527">
+        <v>26</v>
+      </c>
+      <c r="C527" t="s">
+        <v>10</v>
+      </c>
+      <c r="D527" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4">
+      <c r="A528">
+        <v>27</v>
+      </c>
+      <c r="C528" t="s">
+        <v>10</v>
+      </c>
+      <c r="D528" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4">
+      <c r="A529">
+        <v>28</v>
+      </c>
+      <c r="C529" t="s">
+        <v>10</v>
+      </c>
+      <c r="D529" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4">
+      <c r="A530">
+        <v>29</v>
+      </c>
+      <c r="C530" t="s">
+        <v>10</v>
+      </c>
+      <c r="D530" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4">
+      <c r="A531">
+        <v>30</v>
+      </c>
+      <c r="C531" t="s">
+        <v>10</v>
+      </c>
+      <c r="D531" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4">
+      <c r="A532">
+        <v>31</v>
+      </c>
+      <c r="C532" t="s">
+        <v>10</v>
+      </c>
+      <c r="D532" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4">
+      <c r="A533">
+        <v>32</v>
+      </c>
+      <c r="C533" t="s">
+        <v>10</v>
+      </c>
+      <c r="D533" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4">
+      <c r="A534">
+        <v>33</v>
+      </c>
+      <c r="C534" t="s">
+        <v>10</v>
+      </c>
+      <c r="D534" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4">
+      <c r="A535">
+        <v>34</v>
+      </c>
+      <c r="C535" t="s">
+        <v>10</v>
+      </c>
+      <c r="D535" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4">
+      <c r="A536">
+        <v>35</v>
+      </c>
+      <c r="C536" t="s">
+        <v>10</v>
+      </c>
+      <c r="D536" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4">
+      <c r="A537">
+        <v>36</v>
+      </c>
+      <c r="C537" t="s">
+        <v>10</v>
+      </c>
+      <c r="D537" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4">
+      <c r="A538">
+        <v>37</v>
+      </c>
+      <c r="C538" t="s">
+        <v>10</v>
+      </c>
+      <c r="D538" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4">
+      <c r="A539">
+        <v>38</v>
+      </c>
+      <c r="C539" t="s">
+        <v>10</v>
+      </c>
+      <c r="D539" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4">
+      <c r="A540">
+        <v>39</v>
+      </c>
+      <c r="C540" t="s">
+        <v>10</v>
+      </c>
+      <c r="D540" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4">
+      <c r="A541">
+        <v>40</v>
+      </c>
+      <c r="C541" t="s">
+        <v>10</v>
+      </c>
+      <c r="D541" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4">
+      <c r="A542">
+        <v>41</v>
+      </c>
+      <c r="C542" t="s">
+        <v>10</v>
+      </c>
+      <c r="D542" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4">
+      <c r="A543">
+        <v>42</v>
+      </c>
+      <c r="C543" t="s">
+        <v>10</v>
+      </c>
+      <c r="D543" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4">
+      <c r="A544">
+        <v>43</v>
+      </c>
+      <c r="C544" t="s">
+        <v>10</v>
+      </c>
+      <c r="D544" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4">
+      <c r="A545">
+        <v>44</v>
+      </c>
+      <c r="C545" t="s">
+        <v>10</v>
+      </c>
+      <c r="D545" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4">
+      <c r="A546">
+        <v>45</v>
+      </c>
+      <c r="C546" t="s">
+        <v>10</v>
+      </c>
+      <c r="D546" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4">
+      <c r="A547">
+        <v>46</v>
+      </c>
+      <c r="C547" t="s">
+        <v>10</v>
+      </c>
+      <c r="D547" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4">
+      <c r="A548">
+        <v>47</v>
+      </c>
+      <c r="C548" t="s">
+        <v>10</v>
+      </c>
+      <c r="D548" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4">
+      <c r="A549">
+        <v>48</v>
+      </c>
+      <c r="C549" t="s">
+        <v>10</v>
+      </c>
+      <c r="D549" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4">
+      <c r="A550">
+        <v>49</v>
+      </c>
+      <c r="C550" t="s">
+        <v>10</v>
+      </c>
+      <c r="D550" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4">
+      <c r="A551">
+        <v>50</v>
+      </c>
+      <c r="C551" t="s">
+        <v>10</v>
+      </c>
+      <c r="D551" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4">
+      <c r="A552">
+        <v>51</v>
+      </c>
+      <c r="C552" t="s">
+        <v>10</v>
+      </c>
+      <c r="D552" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4">
+      <c r="A553">
+        <v>52</v>
+      </c>
+      <c r="C553" t="s">
+        <v>10</v>
+      </c>
+      <c r="D553" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4">
+      <c r="A554">
+        <v>53</v>
+      </c>
+      <c r="C554" t="s">
+        <v>10</v>
+      </c>
+      <c r="D554" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4">
+      <c r="A555">
+        <v>54</v>
+      </c>
+      <c r="C555" t="s">
+        <v>10</v>
+      </c>
+      <c r="D555" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4">
+      <c r="A556">
+        <v>55</v>
+      </c>
+      <c r="C556" t="s">
+        <v>10</v>
+      </c>
+      <c r="D556" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4">
+      <c r="A557">
+        <v>56</v>
+      </c>
+      <c r="C557" t="s">
+        <v>10</v>
+      </c>
+      <c r="D557" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4">
+      <c r="A558">
+        <v>57</v>
+      </c>
+      <c r="C558" t="s">
+        <v>10</v>
+      </c>
+      <c r="D558" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4">
+      <c r="A559">
+        <v>58</v>
+      </c>
+      <c r="C559" t="s">
+        <v>10</v>
+      </c>
+      <c r="D559" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4">
+      <c r="A560">
+        <v>59</v>
+      </c>
+      <c r="C560" t="s">
+        <v>10</v>
+      </c>
+      <c r="D560" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4">
+      <c r="A561">
+        <v>60</v>
+      </c>
+      <c r="C561" t="s">
+        <v>10</v>
+      </c>
+      <c r="D561" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4">
+      <c r="A562">
+        <v>61</v>
+      </c>
+      <c r="C562" t="s">
+        <v>10</v>
+      </c>
+      <c r="D562" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4">
+      <c r="A563">
+        <v>62</v>
+      </c>
+      <c r="C563" t="s">
+        <v>10</v>
+      </c>
+      <c r="D563" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4">
+      <c r="A564">
+        <v>63</v>
+      </c>
+      <c r="C564" t="s">
+        <v>10</v>
+      </c>
+      <c r="D564" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4">
+      <c r="A565">
+        <v>64</v>
+      </c>
+      <c r="C565" t="s">
+        <v>10</v>
+      </c>
+      <c r="D565" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4">
+      <c r="A566">
+        <v>65</v>
+      </c>
+      <c r="C566" t="s">
+        <v>10</v>
+      </c>
+      <c r="D566" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4">
+      <c r="A567">
+        <v>66</v>
+      </c>
+      <c r="C567" t="s">
+        <v>10</v>
+      </c>
+      <c r="D567" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4">
+      <c r="A568">
+        <v>67</v>
+      </c>
+      <c r="C568" t="s">
+        <v>10</v>
+      </c>
+      <c r="D568" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4">
+      <c r="A569">
+        <v>68</v>
+      </c>
+      <c r="C569" t="s">
+        <v>10</v>
+      </c>
+      <c r="D569" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4">
+      <c r="A570">
+        <v>69</v>
+      </c>
+      <c r="C570" t="s">
+        <v>10</v>
+      </c>
+      <c r="D570" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4">
+      <c r="A571">
+        <v>70</v>
+      </c>
+      <c r="C571" t="s">
+        <v>10</v>
+      </c>
+      <c r="D571" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4">
+      <c r="A572">
+        <v>71</v>
+      </c>
+      <c r="C572" t="s">
+        <v>10</v>
+      </c>
+      <c r="D572" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4">
+      <c r="A573">
+        <v>72</v>
+      </c>
+      <c r="C573" t="s">
+        <v>10</v>
+      </c>
+      <c r="D573" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4">
+      <c r="A574">
+        <v>73</v>
+      </c>
+      <c r="C574" t="s">
+        <v>10</v>
+      </c>
+      <c r="D574" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4">
+      <c r="A575">
+        <v>74</v>
+      </c>
+      <c r="C575" t="s">
+        <v>10</v>
+      </c>
+      <c r="D575" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4">
+      <c r="A576">
+        <v>75</v>
+      </c>
+      <c r="C576" t="s">
+        <v>10</v>
+      </c>
+      <c r="D576" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4">
+      <c r="A577">
+        <v>76</v>
+      </c>
+      <c r="C577" t="s">
+        <v>10</v>
+      </c>
+      <c r="D577" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4">
+      <c r="A578">
+        <v>77</v>
+      </c>
+      <c r="C578" t="s">
+        <v>10</v>
+      </c>
+      <c r="D578" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4">
+      <c r="A579">
+        <v>78</v>
+      </c>
+      <c r="C579" t="s">
+        <v>10</v>
+      </c>
+      <c r="D579" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4">
+      <c r="A580">
+        <v>79</v>
+      </c>
+      <c r="C580" t="s">
+        <v>10</v>
+      </c>
+      <c r="D580" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4">
+      <c r="A581">
+        <v>80</v>
+      </c>
+      <c r="C581" t="s">
+        <v>10</v>
+      </c>
+      <c r="D581" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4">
+      <c r="A582">
+        <v>81</v>
+      </c>
+      <c r="C582" t="s">
+        <v>10</v>
+      </c>
+      <c r="D582" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4">
+      <c r="A583">
+        <v>82</v>
+      </c>
+      <c r="C583" t="s">
+        <v>10</v>
+      </c>
+      <c r="D583" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4">
+      <c r="A584">
+        <v>83</v>
+      </c>
+      <c r="C584" t="s">
+        <v>10</v>
+      </c>
+      <c r="D584" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4">
+      <c r="A585">
+        <v>84</v>
+      </c>
+      <c r="C585" t="s">
+        <v>10</v>
+      </c>
+      <c r="D585" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4">
+      <c r="A586">
+        <v>85</v>
+      </c>
+      <c r="C586" t="s">
+        <v>10</v>
+      </c>
+      <c r="D586" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4">
+      <c r="A587">
+        <v>86</v>
+      </c>
+      <c r="C587" t="s">
+        <v>10</v>
+      </c>
+      <c r="D587" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4">
+      <c r="A588">
+        <v>87</v>
+      </c>
+      <c r="C588" t="s">
+        <v>10</v>
+      </c>
+      <c r="D588" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4">
+      <c r="A589">
+        <v>88</v>
+      </c>
+      <c r="C589" t="s">
+        <v>10</v>
+      </c>
+      <c r="D589" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4">
+      <c r="A590">
+        <v>89</v>
+      </c>
+      <c r="C590" t="s">
+        <v>10</v>
+      </c>
+      <c r="D590" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4">
+      <c r="A591">
+        <v>90</v>
+      </c>
+      <c r="C591" t="s">
+        <v>10</v>
+      </c>
+      <c r="D591" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4">
+      <c r="A592">
+        <v>91</v>
+      </c>
+      <c r="C592" t="s">
+        <v>10</v>
+      </c>
+      <c r="D592" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4">
+      <c r="A593">
+        <v>92</v>
+      </c>
+      <c r="C593" t="s">
+        <v>10</v>
+      </c>
+      <c r="D593" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4">
+      <c r="A594">
+        <v>93</v>
+      </c>
+      <c r="C594" t="s">
+        <v>10</v>
+      </c>
+      <c r="D594" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4">
+      <c r="A595">
+        <v>94</v>
+      </c>
+      <c r="C595" t="s">
+        <v>10</v>
+      </c>
+      <c r="D595" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4">
+      <c r="A596">
+        <v>95</v>
+      </c>
+      <c r="C596" t="s">
+        <v>10</v>
+      </c>
+      <c r="D596" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4">
+      <c r="A597">
+        <v>96</v>
+      </c>
+      <c r="C597" t="s">
+        <v>10</v>
+      </c>
+      <c r="D597" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4">
+      <c r="A598">
+        <v>97</v>
+      </c>
+      <c r="C598" t="s">
+        <v>10</v>
+      </c>
+      <c r="D598" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4">
+      <c r="A599">
+        <v>98</v>
+      </c>
+      <c r="C599" t="s">
+        <v>10</v>
+      </c>
+      <c r="D599" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4">
+      <c r="A600">
+        <v>99</v>
+      </c>
+      <c r="C600" t="s">
+        <v>10</v>
+      </c>
+      <c r="D600" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4">
+      <c r="A601">
+        <v>100</v>
+      </c>
+      <c r="C601" t="s">
+        <v>10</v>
+      </c>
+      <c r="D601" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Makespans10.xlsx
+++ b/data/Makespans10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/livion/Documents/GitHub/Cloud-Workflow-Scheduling-base-on-Deep-Reinforcement-Learning/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06C9A99-3A3F-3C44-B7C5-0D1FE4B0F440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F852A431-D1E2-1A4C-A858-5D8B774E3675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51200" yWindow="500" windowWidth="28800" windowHeight="50700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A465" zoomScale="177" workbookViewId="0">
-      <selection activeCell="E506" sqref="E506:E513"/>
+    <sheetView tabSelected="1" topLeftCell="A279" zoomScale="177" workbookViewId="0">
+      <selection activeCell="G311" sqref="G311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>

--- a/data/Makespans10.xlsx
+++ b/data/Makespans10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/livion/Documents/GitHub/Cloud-Workflow-Scheduling-base-on-Deep-Reinforcement-Learning/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F852A431-D1E2-1A4C-A858-5D8B774E3675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405BF931-07E5-F746-A000-4DE0AA7345D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="500" windowWidth="28800" windowHeight="50700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="13">
   <si>
     <t>序号</t>
   </si>
@@ -52,8 +52,16 @@
     <t>n=10</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>MCTS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n=10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -69,16 +77,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,7 +111,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -442,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D601"/>
+  <dimension ref="A1:G601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A279" zoomScale="177" workbookViewId="0">
-      <selection activeCell="G311" sqref="G311"/>
+    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
+      <selection activeCell="H413" sqref="H413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -472,7 +480,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>77.5</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -486,7 +494,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>88</v>
+        <v>88.7</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -500,7 +508,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>78.7</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -514,7 +522,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>74.2</v>
+        <v>70.7</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -528,7 +536,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>70.2</v>
+        <v>68.7</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -542,7 +550,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>73</v>
+        <v>72.3</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -556,7 +564,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>73.5</v>
+        <v>72.3</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -570,7 +578,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>79.099999999999994</v>
+        <v>78.2</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -584,7 +592,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>77</v>
+        <v>77.5</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -598,7 +606,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>66.900000000000006</v>
+        <v>67.7</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -612,7 +620,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>76.7</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -626,7 +634,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>81.2</v>
+        <v>78.8</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -640,7 +648,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>76.2</v>
+        <v>77.8</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -654,7 +662,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>74</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -668,7 +676,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>77.5</v>
+        <v>82.6</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -682,7 +690,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>80.3</v>
+        <v>79.8</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -696,7 +704,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>74.3</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -710,7 +718,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>73.900000000000006</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -724,7 +732,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>63.5</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -738,7 +746,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>71.7</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -752,7 +760,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>76.8</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -766,7 +774,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>74.3</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -780,7 +788,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>72.3</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -794,7 +802,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>79.599999999999994</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -808,7 +816,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>75.2</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -822,7 +830,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>83.8</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -836,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>74.900000000000006</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -850,7 +858,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>82.8</v>
+        <v>84.7</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -864,7 +872,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>76.3</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -878,7 +886,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>84</v>
+        <v>87.5</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -906,7 +914,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>66.3</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -920,7 +928,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>74.900000000000006</v>
+        <v>75.3</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -934,7 +942,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>81.900000000000006</v>
+        <v>83.7</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
@@ -948,7 +956,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>76.2</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -962,7 +970,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>70.599999999999994</v>
+        <v>69.7</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -990,7 +998,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>80.400000000000006</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -1004,7 +1012,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>74.400000000000006</v>
+        <v>73.7</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -1018,7 +1026,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>89.1</v>
+        <v>84.5</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -1032,7 +1040,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>75.3</v>
+        <v>73.3</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
@@ -1046,7 +1054,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>74.3</v>
+        <v>75.3</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
@@ -1060,7 +1068,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>79.5</v>
+        <v>76.3</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
@@ -1074,7 +1082,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>76.5</v>
+        <v>76.2</v>
       </c>
       <c r="C45" t="s">
         <v>4</v>
@@ -1088,7 +1096,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>70.099999999999994</v>
+        <v>69.3</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
@@ -1102,7 +1110,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>71.3</v>
+        <v>72.8</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
@@ -1116,7 +1124,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>77.2</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="C48" t="s">
         <v>4</v>
@@ -1130,7 +1138,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>88.9</v>
+        <v>88.1</v>
       </c>
       <c r="C49" t="s">
         <v>4</v>
@@ -1144,7 +1152,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>73.2</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
@@ -1158,7 +1166,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>79.900000000000006</v>
+        <v>75.5</v>
       </c>
       <c r="C51" t="s">
         <v>4</v>
@@ -1172,7 +1180,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>73.5</v>
+        <v>77.2</v>
       </c>
       <c r="C52" t="s">
         <v>4</v>
@@ -1186,7 +1194,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>69.3</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="C53" t="s">
         <v>4</v>
@@ -1200,7 +1208,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>75.099999999999994</v>
+        <v>75.8</v>
       </c>
       <c r="C54" t="s">
         <v>4</v>
@@ -1214,7 +1222,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>62.8</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="C55" t="s">
         <v>4</v>
@@ -1228,7 +1236,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>70.7</v>
+        <v>71.8</v>
       </c>
       <c r="C56" t="s">
         <v>4</v>
@@ -1242,7 +1250,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>89.2</v>
+        <v>87.6</v>
       </c>
       <c r="C57" t="s">
         <v>4</v>
@@ -1256,7 +1264,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>74.2</v>
+        <v>71</v>
       </c>
       <c r="C58" t="s">
         <v>4</v>
@@ -1270,7 +1278,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>70.599999999999994</v>
+        <v>68.8</v>
       </c>
       <c r="C59" t="s">
         <v>4</v>
@@ -1284,7 +1292,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>78</v>
+        <v>79.2</v>
       </c>
       <c r="C60" t="s">
         <v>4</v>
@@ -1298,7 +1306,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>61.5</v>
+        <v>62.7</v>
       </c>
       <c r="C61" t="s">
         <v>4</v>
@@ -1312,7 +1320,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>70.400000000000006</v>
+        <v>71.7</v>
       </c>
       <c r="C62" t="s">
         <v>4</v>
@@ -1326,7 +1334,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>64.900000000000006</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="C63" t="s">
         <v>4</v>
@@ -1340,7 +1348,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>88.4</v>
+        <v>87.6</v>
       </c>
       <c r="C64" t="s">
         <v>4</v>
@@ -1349,12 +1357,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>69.099999999999994</v>
+        <v>69.2</v>
       </c>
       <c r="C65" t="s">
         <v>4</v>
@@ -1363,12 +1371,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>78.7</v>
+        <v>77.8</v>
       </c>
       <c r="C66" t="s">
         <v>4</v>
@@ -1377,12 +1385,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>78.599999999999994</v>
+        <v>77.5</v>
       </c>
       <c r="C67" t="s">
         <v>4</v>
@@ -1391,12 +1399,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>77.900000000000006</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="C68" t="s">
         <v>4</v>
@@ -1405,12 +1413,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>72.400000000000006</v>
+        <v>71.7</v>
       </c>
       <c r="C69" t="s">
         <v>4</v>
@@ -1419,12 +1427,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>75.7</v>
+        <v>77.2</v>
       </c>
       <c r="C70" t="s">
         <v>4</v>
@@ -1433,12 +1441,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>76.599999999999994</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="C71" t="s">
         <v>4</v>
@@ -1447,12 +1455,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
-        <v>72.2</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="C72" t="s">
         <v>4</v>
@@ -1461,12 +1469,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
-        <v>75.400000000000006</v>
+        <v>75.3</v>
       </c>
       <c r="C73" t="s">
         <v>4</v>
@@ -1475,12 +1483,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
-        <v>70.2</v>
+        <v>70.8</v>
       </c>
       <c r="C74" t="s">
         <v>4</v>
@@ -1489,12 +1497,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
-        <v>71</v>
+        <v>71.3</v>
       </c>
       <c r="C75" t="s">
         <v>4</v>
@@ -1503,12 +1511,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
-        <v>75.8</v>
+        <v>75</v>
       </c>
       <c r="C76" t="s">
         <v>4</v>
@@ -1517,12 +1525,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>74.8</v>
+        <v>77</v>
       </c>
       <c r="C77" t="s">
         <v>4</v>
@@ -1530,8 +1538,11 @@
       <c r="D77" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="G77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1545,12 +1556,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
-        <v>68</v>
+        <v>66.2</v>
       </c>
       <c r="C79" t="s">
         <v>4</v>
@@ -1559,12 +1570,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
-        <v>70.599999999999994</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="C80" t="s">
         <v>4</v>
@@ -1578,7 +1589,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>75.599999999999994</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="C81" t="s">
         <v>4</v>
@@ -1592,7 +1603,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>71.7</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="C82" t="s">
         <v>4</v>
@@ -1606,7 +1617,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>85.5</v>
+        <v>85.2</v>
       </c>
       <c r="C83" t="s">
         <v>4</v>
@@ -1620,7 +1631,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>72.2</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="C84" t="s">
         <v>4</v>
@@ -1634,7 +1645,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>75.7</v>
+        <v>77</v>
       </c>
       <c r="C85" t="s">
         <v>4</v>
@@ -1648,7 +1659,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>74.3</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="C86" t="s">
         <v>4</v>
@@ -1662,7 +1673,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>76.2</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="C87" t="s">
         <v>4</v>
@@ -1676,7 +1687,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>78.599999999999994</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="C88" t="s">
         <v>4</v>
@@ -1690,7 +1701,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>68.5</v>
+        <v>68.7</v>
       </c>
       <c r="C89" t="s">
         <v>4</v>
@@ -1704,7 +1715,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>75.5</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="C90" t="s">
         <v>4</v>
@@ -1718,7 +1729,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>69.3</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="C91" t="s">
         <v>4</v>
@@ -1732,7 +1743,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>67.8</v>
+        <v>67</v>
       </c>
       <c r="C92" t="s">
         <v>4</v>
@@ -1746,7 +1757,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>71.7</v>
+        <v>70.2</v>
       </c>
       <c r="C93" t="s">
         <v>4</v>
@@ -1760,7 +1771,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>72.400000000000006</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="C94" t="s">
         <v>4</v>
@@ -1774,7 +1785,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>78</v>
+        <v>77.7</v>
       </c>
       <c r="C95" t="s">
         <v>4</v>
@@ -1788,7 +1799,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>70.2</v>
+        <v>72.8</v>
       </c>
       <c r="C96" t="s">
         <v>4</v>
@@ -1802,7 +1813,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>76.5</v>
+        <v>76.8</v>
       </c>
       <c r="C97" t="s">
         <v>4</v>
@@ -1816,7 +1827,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>70.599999999999994</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="C98" t="s">
         <v>4</v>
@@ -1830,7 +1841,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>66</v>
+        <v>65.7</v>
       </c>
       <c r="C99" t="s">
         <v>4</v>
@@ -1844,7 +1855,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>83.9</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="C100" t="s">
         <v>4</v>
@@ -1858,7 +1869,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>68.5</v>
+        <v>67</v>
       </c>
       <c r="C101" t="s">
         <v>4</v>
@@ -4672,7 +4683,7 @@
         <v>1</v>
       </c>
       <c r="B302">
-        <v>95.8</v>
+        <v>103.1</v>
       </c>
       <c r="C302" t="s">
         <v>7</v>
@@ -4686,7 +4697,7 @@
         <v>2</v>
       </c>
       <c r="B303">
-        <v>102.2</v>
+        <v>110.4</v>
       </c>
       <c r="C303" t="s">
         <v>7</v>
@@ -4700,7 +4711,7 @@
         <v>3</v>
       </c>
       <c r="B304">
-        <v>97.7</v>
+        <v>108.7</v>
       </c>
       <c r="C304" t="s">
         <v>7</v>
@@ -4714,7 +4725,7 @@
         <v>4</v>
       </c>
       <c r="B305">
-        <v>103</v>
+        <v>90.6</v>
       </c>
       <c r="C305" t="s">
         <v>7</v>
@@ -4728,7 +4739,7 @@
         <v>5</v>
       </c>
       <c r="B306">
-        <v>91.3</v>
+        <v>94.7</v>
       </c>
       <c r="C306" t="s">
         <v>7</v>
@@ -4742,7 +4753,7 @@
         <v>6</v>
       </c>
       <c r="B307">
-        <v>98</v>
+        <v>105.5</v>
       </c>
       <c r="C307" t="s">
         <v>7</v>
@@ -4756,7 +4767,7 @@
         <v>7</v>
       </c>
       <c r="B308">
-        <v>99.2</v>
+        <v>104.9</v>
       </c>
       <c r="C308" t="s">
         <v>7</v>
@@ -4770,7 +4781,7 @@
         <v>8</v>
       </c>
       <c r="B309">
-        <v>100.4</v>
+        <v>105.1</v>
       </c>
       <c r="C309" t="s">
         <v>7</v>
@@ -4784,7 +4795,7 @@
         <v>9</v>
       </c>
       <c r="B310">
-        <v>92.5</v>
+        <v>95.3</v>
       </c>
       <c r="C310" t="s">
         <v>7</v>
@@ -4798,7 +4809,7 @@
         <v>10</v>
       </c>
       <c r="B311">
-        <v>89.8</v>
+        <v>85.7</v>
       </c>
       <c r="C311" t="s">
         <v>7</v>
@@ -4812,7 +4823,7 @@
         <v>11</v>
       </c>
       <c r="B312">
-        <v>98.8</v>
+        <v>96.2</v>
       </c>
       <c r="C312" t="s">
         <v>7</v>
@@ -4826,7 +4837,7 @@
         <v>12</v>
       </c>
       <c r="B313">
-        <v>106</v>
+        <v>109.6</v>
       </c>
       <c r="C313" t="s">
         <v>7</v>
@@ -4840,7 +4851,7 @@
         <v>13</v>
       </c>
       <c r="B314">
-        <v>95</v>
+        <v>96.3</v>
       </c>
       <c r="C314" t="s">
         <v>7</v>
@@ -4854,7 +4865,7 @@
         <v>14</v>
       </c>
       <c r="B315">
-        <v>101.3</v>
+        <v>101.7</v>
       </c>
       <c r="C315" t="s">
         <v>7</v>
@@ -4868,7 +4879,7 @@
         <v>15</v>
       </c>
       <c r="B316">
-        <v>104.9</v>
+        <v>107.2</v>
       </c>
       <c r="C316" t="s">
         <v>7</v>
@@ -4882,7 +4893,7 @@
         <v>16</v>
       </c>
       <c r="B317">
-        <v>105.3</v>
+        <v>99</v>
       </c>
       <c r="C317" t="s">
         <v>7</v>
@@ -4896,7 +4907,7 @@
         <v>17</v>
       </c>
       <c r="B318">
-        <v>101.1</v>
+        <v>98.3</v>
       </c>
       <c r="C318" t="s">
         <v>7</v>
@@ -4910,7 +4921,7 @@
         <v>18</v>
       </c>
       <c r="B319">
-        <v>105.6</v>
+        <v>103.6</v>
       </c>
       <c r="C319" t="s">
         <v>7</v>
@@ -4924,7 +4935,7 @@
         <v>19</v>
       </c>
       <c r="B320">
-        <v>87.8</v>
+        <v>90.6</v>
       </c>
       <c r="C320" t="s">
         <v>7</v>
@@ -4938,7 +4949,7 @@
         <v>20</v>
       </c>
       <c r="B321">
-        <v>98.2</v>
+        <v>96.3</v>
       </c>
       <c r="C321" t="s">
         <v>7</v>
@@ -4952,7 +4963,7 @@
         <v>21</v>
       </c>
       <c r="B322">
-        <v>95</v>
+        <v>92.8</v>
       </c>
       <c r="C322" t="s">
         <v>7</v>
@@ -4966,7 +4977,7 @@
         <v>22</v>
       </c>
       <c r="B323">
-        <v>99.1</v>
+        <v>101.4</v>
       </c>
       <c r="C323" t="s">
         <v>7</v>
@@ -4980,7 +4991,7 @@
         <v>23</v>
       </c>
       <c r="B324">
-        <v>95.7</v>
+        <v>92.8</v>
       </c>
       <c r="C324" t="s">
         <v>7</v>
@@ -4994,7 +5005,7 @@
         <v>24</v>
       </c>
       <c r="B325">
-        <v>109.9</v>
+        <v>100.1</v>
       </c>
       <c r="C325" t="s">
         <v>7</v>
@@ -5008,7 +5019,7 @@
         <v>25</v>
       </c>
       <c r="B326">
-        <v>100.6</v>
+        <v>104.9</v>
       </c>
       <c r="C326" t="s">
         <v>7</v>
@@ -5022,7 +5033,7 @@
         <v>26</v>
       </c>
       <c r="B327">
-        <v>106.5</v>
+        <v>110.3</v>
       </c>
       <c r="C327" t="s">
         <v>7</v>
@@ -5036,7 +5047,7 @@
         <v>27</v>
       </c>
       <c r="B328">
-        <v>109.4</v>
+        <v>100.2</v>
       </c>
       <c r="C328" t="s">
         <v>7</v>
@@ -5050,7 +5061,7 @@
         <v>28</v>
       </c>
       <c r="B329">
-        <v>103.5</v>
+        <v>99.7</v>
       </c>
       <c r="C329" t="s">
         <v>7</v>
@@ -5064,7 +5075,7 @@
         <v>29</v>
       </c>
       <c r="B330">
-        <v>106.5</v>
+        <v>98.4</v>
       </c>
       <c r="C330" t="s">
         <v>7</v>
@@ -5078,7 +5089,7 @@
         <v>30</v>
       </c>
       <c r="B331">
-        <v>116.3</v>
+        <v>110</v>
       </c>
       <c r="C331" t="s">
         <v>7</v>
@@ -5092,7 +5103,7 @@
         <v>31</v>
       </c>
       <c r="B332">
-        <v>104.8</v>
+        <v>104.3</v>
       </c>
       <c r="C332" t="s">
         <v>7</v>
@@ -5106,7 +5117,7 @@
         <v>32</v>
       </c>
       <c r="B333">
-        <v>88</v>
+        <v>82.3</v>
       </c>
       <c r="C333" t="s">
         <v>7</v>
@@ -5120,7 +5131,7 @@
         <v>33</v>
       </c>
       <c r="B334">
-        <v>107.8</v>
+        <v>100.9</v>
       </c>
       <c r="C334" t="s">
         <v>7</v>
@@ -5134,7 +5145,7 @@
         <v>34</v>
       </c>
       <c r="B335">
-        <v>103.6</v>
+        <v>99.2</v>
       </c>
       <c r="C335" t="s">
         <v>7</v>
@@ -5148,7 +5159,7 @@
         <v>35</v>
       </c>
       <c r="B336">
-        <v>100.5</v>
+        <v>101.9</v>
       </c>
       <c r="C336" t="s">
         <v>7</v>
@@ -5162,7 +5173,7 @@
         <v>36</v>
       </c>
       <c r="B337">
-        <v>93.5</v>
+        <v>97.5</v>
       </c>
       <c r="C337" t="s">
         <v>7</v>
@@ -5176,7 +5187,7 @@
         <v>37</v>
       </c>
       <c r="B338">
-        <v>108.6</v>
+        <v>111.9</v>
       </c>
       <c r="C338" t="s">
         <v>7</v>
@@ -5190,7 +5201,7 @@
         <v>38</v>
       </c>
       <c r="B339">
-        <v>104.6</v>
+        <v>108.2</v>
       </c>
       <c r="C339" t="s">
         <v>7</v>
@@ -5204,7 +5215,7 @@
         <v>39</v>
       </c>
       <c r="B340">
-        <v>101.9</v>
+        <v>97.4</v>
       </c>
       <c r="C340" t="s">
         <v>7</v>
@@ -5218,7 +5229,7 @@
         <v>40</v>
       </c>
       <c r="B341">
-        <v>110.8</v>
+        <v>104.8</v>
       </c>
       <c r="C341" t="s">
         <v>7</v>
@@ -5232,7 +5243,7 @@
         <v>41</v>
       </c>
       <c r="B342">
-        <v>102.2</v>
+        <v>100.4</v>
       </c>
       <c r="C342" t="s">
         <v>7</v>
@@ -5246,7 +5257,7 @@
         <v>42</v>
       </c>
       <c r="B343">
-        <v>100.7</v>
+        <v>104.9</v>
       </c>
       <c r="C343" t="s">
         <v>7</v>
@@ -5260,7 +5271,7 @@
         <v>43</v>
       </c>
       <c r="B344">
-        <v>103</v>
+        <v>106.1</v>
       </c>
       <c r="C344" t="s">
         <v>7</v>
@@ -5274,7 +5285,7 @@
         <v>44</v>
       </c>
       <c r="B345">
-        <v>107.7</v>
+        <v>104</v>
       </c>
       <c r="C345" t="s">
         <v>7</v>
@@ -5288,7 +5299,7 @@
         <v>45</v>
       </c>
       <c r="B346">
-        <v>91.2</v>
+        <v>90.9</v>
       </c>
       <c r="C346" t="s">
         <v>7</v>
@@ -5302,7 +5313,7 @@
         <v>46</v>
       </c>
       <c r="B347">
-        <v>93.1</v>
+        <v>97.2</v>
       </c>
       <c r="C347" t="s">
         <v>7</v>
@@ -5316,7 +5327,7 @@
         <v>47</v>
       </c>
       <c r="B348">
-        <v>98.6</v>
+        <v>102.6</v>
       </c>
       <c r="C348" t="s">
         <v>7</v>
@@ -5330,7 +5341,7 @@
         <v>48</v>
       </c>
       <c r="B349">
-        <v>116.1</v>
+        <v>109.7</v>
       </c>
       <c r="C349" t="s">
         <v>7</v>
@@ -5344,7 +5355,7 @@
         <v>49</v>
       </c>
       <c r="B350">
-        <v>100.5</v>
+        <v>97.1</v>
       </c>
       <c r="C350" t="s">
         <v>7</v>
@@ -5358,7 +5369,7 @@
         <v>50</v>
       </c>
       <c r="B351">
-        <v>106.3</v>
+        <v>108</v>
       </c>
       <c r="C351" t="s">
         <v>7</v>
@@ -5372,7 +5383,7 @@
         <v>51</v>
       </c>
       <c r="B352">
-        <v>101.1</v>
+        <v>100.9</v>
       </c>
       <c r="C352" t="s">
         <v>7</v>
@@ -5386,7 +5397,7 @@
         <v>52</v>
       </c>
       <c r="B353">
-        <v>92.3</v>
+        <v>87.7</v>
       </c>
       <c r="C353" t="s">
         <v>7</v>
@@ -5400,7 +5411,7 @@
         <v>53</v>
       </c>
       <c r="B354">
-        <v>103.9</v>
+        <v>98.5</v>
       </c>
       <c r="C354" t="s">
         <v>7</v>
@@ -5414,7 +5425,7 @@
         <v>54</v>
       </c>
       <c r="B355">
-        <v>92.7</v>
+        <v>94.1</v>
       </c>
       <c r="C355" t="s">
         <v>7</v>
@@ -5428,7 +5439,7 @@
         <v>55</v>
       </c>
       <c r="B356">
-        <v>105</v>
+        <v>101.8</v>
       </c>
       <c r="C356" t="s">
         <v>7</v>
@@ -5442,7 +5453,7 @@
         <v>56</v>
       </c>
       <c r="B357">
-        <v>110.2</v>
+        <v>107.1</v>
       </c>
       <c r="C357" t="s">
         <v>7</v>
@@ -5456,7 +5467,7 @@
         <v>57</v>
       </c>
       <c r="B358">
-        <v>91.3</v>
+        <v>98.1</v>
       </c>
       <c r="C358" t="s">
         <v>7</v>
@@ -5470,7 +5481,7 @@
         <v>58</v>
       </c>
       <c r="B359">
-        <v>88.9</v>
+        <v>93.1</v>
       </c>
       <c r="C359" t="s">
         <v>7</v>
@@ -5484,7 +5495,7 @@
         <v>59</v>
       </c>
       <c r="B360">
-        <v>97.2</v>
+        <v>103</v>
       </c>
       <c r="C360" t="s">
         <v>7</v>
@@ -5498,7 +5509,7 @@
         <v>60</v>
       </c>
       <c r="B361">
-        <v>93.5</v>
+        <v>86.1</v>
       </c>
       <c r="C361" t="s">
         <v>7</v>
@@ -5512,7 +5523,7 @@
         <v>61</v>
       </c>
       <c r="B362">
-        <v>97.4</v>
+        <v>105.8</v>
       </c>
       <c r="C362" t="s">
         <v>7</v>
@@ -5526,7 +5537,7 @@
         <v>62</v>
       </c>
       <c r="B363">
-        <v>82.2</v>
+        <v>90.8</v>
       </c>
       <c r="C363" t="s">
         <v>7</v>
@@ -5540,7 +5551,7 @@
         <v>63</v>
       </c>
       <c r="B364">
-        <v>113.4</v>
+        <v>107.6</v>
       </c>
       <c r="C364" t="s">
         <v>7</v>
@@ -5554,7 +5565,7 @@
         <v>64</v>
       </c>
       <c r="B365">
-        <v>87.9</v>
+        <v>90.2</v>
       </c>
       <c r="C365" t="s">
         <v>7</v>
@@ -5568,7 +5579,7 @@
         <v>65</v>
       </c>
       <c r="B366">
-        <v>102.4</v>
+        <v>103.7</v>
       </c>
       <c r="C366" t="s">
         <v>7</v>
@@ -5582,7 +5593,7 @@
         <v>66</v>
       </c>
       <c r="B367">
-        <v>105.1</v>
+        <v>102.2</v>
       </c>
       <c r="C367" t="s">
         <v>7</v>
@@ -5596,7 +5607,7 @@
         <v>67</v>
       </c>
       <c r="B368">
-        <v>102.3</v>
+        <v>104.9</v>
       </c>
       <c r="C368" t="s">
         <v>7</v>
@@ -5610,7 +5621,7 @@
         <v>68</v>
       </c>
       <c r="B369">
-        <v>95.2</v>
+        <v>94.1</v>
       </c>
       <c r="C369" t="s">
         <v>7</v>
@@ -5624,7 +5635,7 @@
         <v>69</v>
       </c>
       <c r="B370">
-        <v>96.8</v>
+        <v>95.7</v>
       </c>
       <c r="C370" t="s">
         <v>7</v>
@@ -5638,7 +5649,7 @@
         <v>70</v>
       </c>
       <c r="B371">
-        <v>97.7</v>
+        <v>103.3</v>
       </c>
       <c r="C371" t="s">
         <v>7</v>
@@ -5652,7 +5663,7 @@
         <v>71</v>
       </c>
       <c r="B372">
-        <v>90.4</v>
+        <v>87.4</v>
       </c>
       <c r="C372" t="s">
         <v>7</v>
@@ -5666,7 +5677,7 @@
         <v>72</v>
       </c>
       <c r="B373">
-        <v>101.4</v>
+        <v>98.4</v>
       </c>
       <c r="C373" t="s">
         <v>7</v>
@@ -5680,7 +5691,7 @@
         <v>73</v>
       </c>
       <c r="B374">
-        <v>93.3</v>
+        <v>89.7</v>
       </c>
       <c r="C374" t="s">
         <v>7</v>
@@ -5694,7 +5705,7 @@
         <v>74</v>
       </c>
       <c r="B375">
-        <v>92.3</v>
+        <v>94.8</v>
       </c>
       <c r="C375" t="s">
         <v>7</v>
@@ -5708,7 +5719,7 @@
         <v>75</v>
       </c>
       <c r="B376">
-        <v>98.8</v>
+        <v>97.3</v>
       </c>
       <c r="C376" t="s">
         <v>7</v>
@@ -5722,7 +5733,7 @@
         <v>76</v>
       </c>
       <c r="B377">
-        <v>101.7</v>
+        <v>103.8</v>
       </c>
       <c r="C377" t="s">
         <v>7</v>
@@ -5736,7 +5747,7 @@
         <v>77</v>
       </c>
       <c r="B378">
-        <v>99.3</v>
+        <v>94.3</v>
       </c>
       <c r="C378" t="s">
         <v>7</v>
@@ -5750,7 +5761,7 @@
         <v>78</v>
       </c>
       <c r="B379">
-        <v>92.9</v>
+        <v>93.7</v>
       </c>
       <c r="C379" t="s">
         <v>7</v>
@@ -5764,7 +5775,7 @@
         <v>79</v>
       </c>
       <c r="B380">
-        <v>84.6</v>
+        <v>90.5</v>
       </c>
       <c r="C380" t="s">
         <v>7</v>
@@ -5778,7 +5789,7 @@
         <v>80</v>
       </c>
       <c r="B381">
-        <v>95.9</v>
+        <v>99</v>
       </c>
       <c r="C381" t="s">
         <v>7</v>
@@ -5792,7 +5803,7 @@
         <v>81</v>
       </c>
       <c r="B382">
-        <v>95.9</v>
+        <v>91.9</v>
       </c>
       <c r="C382" t="s">
         <v>7</v>
@@ -5806,7 +5817,7 @@
         <v>82</v>
       </c>
       <c r="B383">
-        <v>111</v>
+        <v>109.4</v>
       </c>
       <c r="C383" t="s">
         <v>7</v>
@@ -5820,7 +5831,7 @@
         <v>83</v>
       </c>
       <c r="B384">
-        <v>98.7</v>
+        <v>98</v>
       </c>
       <c r="C384" t="s">
         <v>7</v>
@@ -5834,7 +5845,7 @@
         <v>84</v>
       </c>
       <c r="B385">
-        <v>102.3</v>
+        <v>99</v>
       </c>
       <c r="C385" t="s">
         <v>7</v>
@@ -5848,7 +5859,7 @@
         <v>85</v>
       </c>
       <c r="B386">
-        <v>101.5</v>
+        <v>98.4</v>
       </c>
       <c r="C386" t="s">
         <v>7</v>
@@ -5862,7 +5873,7 @@
         <v>86</v>
       </c>
       <c r="B387">
-        <v>102.2</v>
+        <v>105.7</v>
       </c>
       <c r="C387" t="s">
         <v>7</v>
@@ -5876,7 +5887,7 @@
         <v>87</v>
       </c>
       <c r="B388">
-        <v>105</v>
+        <v>95.9</v>
       </c>
       <c r="C388" t="s">
         <v>7</v>
@@ -5890,7 +5901,7 @@
         <v>88</v>
       </c>
       <c r="B389">
-        <v>92.1</v>
+        <v>87.3</v>
       </c>
       <c r="C389" t="s">
         <v>7</v>
@@ -5904,7 +5915,7 @@
         <v>89</v>
       </c>
       <c r="B390">
-        <v>100.8</v>
+        <v>103.6</v>
       </c>
       <c r="C390" t="s">
         <v>7</v>
@@ -5918,7 +5929,7 @@
         <v>90</v>
       </c>
       <c r="B391">
-        <v>91.9</v>
+        <v>93.9</v>
       </c>
       <c r="C391" t="s">
         <v>7</v>
@@ -5932,7 +5943,7 @@
         <v>91</v>
       </c>
       <c r="B392">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C392" t="s">
         <v>7</v>
@@ -5946,7 +5957,7 @@
         <v>92</v>
       </c>
       <c r="B393">
-        <v>103.4</v>
+        <v>99</v>
       </c>
       <c r="C393" t="s">
         <v>7</v>
@@ -5960,7 +5971,7 @@
         <v>93</v>
       </c>
       <c r="B394">
-        <v>101.5</v>
+        <v>103.6</v>
       </c>
       <c r="C394" t="s">
         <v>7</v>
@@ -5974,7 +5985,7 @@
         <v>94</v>
       </c>
       <c r="B395">
-        <v>105.1</v>
+        <v>100</v>
       </c>
       <c r="C395" t="s">
         <v>7</v>
@@ -5988,7 +5999,7 @@
         <v>95</v>
       </c>
       <c r="B396">
-        <v>99.1</v>
+        <v>95.5</v>
       </c>
       <c r="C396" t="s">
         <v>7</v>
@@ -6002,7 +6013,7 @@
         <v>96</v>
       </c>
       <c r="B397">
-        <v>99.4</v>
+        <v>108.2</v>
       </c>
       <c r="C397" t="s">
         <v>7</v>
@@ -6016,7 +6027,7 @@
         <v>97</v>
       </c>
       <c r="B398">
-        <v>98.3</v>
+        <v>89.3</v>
       </c>
       <c r="C398" t="s">
         <v>7</v>
@@ -6030,7 +6041,7 @@
         <v>98</v>
       </c>
       <c r="B399">
-        <v>99.4</v>
+        <v>93.4</v>
       </c>
       <c r="C399" t="s">
         <v>7</v>
@@ -6044,7 +6055,7 @@
         <v>99</v>
       </c>
       <c r="B400">
-        <v>98.3</v>
+        <v>106.3</v>
       </c>
       <c r="C400" t="s">
         <v>7</v>
@@ -6058,7 +6069,7 @@
         <v>100</v>
       </c>
       <c r="B401">
-        <v>93.4</v>
+        <v>92.2</v>
       </c>
       <c r="C401" t="s">
         <v>7</v>
@@ -6072,7 +6083,7 @@
         <v>1</v>
       </c>
       <c r="B402" s="1">
-        <v>75</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="C402" t="s">
         <v>8</v>
@@ -6086,7 +6097,7 @@
         <v>2</v>
       </c>
       <c r="B403" s="1">
-        <v>81.900000000000006</v>
+        <v>86.7</v>
       </c>
       <c r="C403" t="s">
         <v>8</v>
@@ -6100,7 +6111,7 @@
         <v>3</v>
       </c>
       <c r="B404" s="1">
-        <v>74.7</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="C404" t="s">
         <v>8</v>
@@ -6114,7 +6125,7 @@
         <v>4</v>
       </c>
       <c r="B405" s="1">
-        <v>69.400000000000006</v>
+        <v>69.7</v>
       </c>
       <c r="C405" t="s">
         <v>8</v>
@@ -6128,7 +6139,7 @@
         <v>5</v>
       </c>
       <c r="B406" s="1">
-        <v>69.599999999999994</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="C406" t="s">
         <v>8</v>
@@ -6142,7 +6153,7 @@
         <v>6</v>
       </c>
       <c r="B407" s="1">
-        <v>71.7</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="C407" t="s">
         <v>8</v>
@@ -6156,7 +6167,7 @@
         <v>7</v>
       </c>
       <c r="B408" s="1">
-        <v>73.8</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="C408" t="s">
         <v>8</v>
@@ -6170,7 +6181,7 @@
         <v>8</v>
       </c>
       <c r="B409" s="1">
-        <v>75</v>
+        <v>74.5</v>
       </c>
       <c r="C409" t="s">
         <v>8</v>
@@ -6184,7 +6195,7 @@
         <v>9</v>
       </c>
       <c r="B410" s="1">
-        <v>74.5</v>
+        <v>75.3</v>
       </c>
       <c r="C410" t="s">
         <v>8</v>
@@ -6198,7 +6209,7 @@
         <v>10</v>
       </c>
       <c r="B411" s="1">
-        <v>65</v>
+        <v>66.3</v>
       </c>
       <c r="C411" t="s">
         <v>8</v>
@@ -6212,7 +6223,7 @@
         <v>11</v>
       </c>
       <c r="B412" s="1">
-        <v>75</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="C412" t="s">
         <v>8</v>
@@ -6226,7 +6237,7 @@
         <v>12</v>
       </c>
       <c r="B413" s="1">
-        <v>79.5</v>
+        <v>78.2</v>
       </c>
       <c r="C413" t="s">
         <v>8</v>
@@ -6240,7 +6251,7 @@
         <v>13</v>
       </c>
       <c r="B414" s="1">
-        <v>72.099999999999994</v>
+        <v>75.2</v>
       </c>
       <c r="C414" t="s">
         <v>8</v>
@@ -6254,7 +6265,7 @@
         <v>14</v>
       </c>
       <c r="B415" s="1">
-        <v>74.2</v>
+        <v>73.3</v>
       </c>
       <c r="C415" t="s">
         <v>8</v>
@@ -6268,7 +6279,7 @@
         <v>15</v>
       </c>
       <c r="B416" s="1">
-        <v>80.3</v>
+        <v>78.7</v>
       </c>
       <c r="C416" t="s">
         <v>8</v>
@@ -6282,7 +6293,7 @@
         <v>16</v>
       </c>
       <c r="B417" s="1">
-        <v>77.099999999999994</v>
+        <v>75.2</v>
       </c>
       <c r="C417" t="s">
         <v>8</v>
@@ -6296,7 +6307,7 @@
         <v>17</v>
       </c>
       <c r="B418" s="1">
-        <v>72</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="C418" t="s">
         <v>8</v>
@@ -6310,7 +6321,7 @@
         <v>18</v>
       </c>
       <c r="B419" s="1">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C419" t="s">
         <v>8</v>
@@ -6324,7 +6335,7 @@
         <v>19</v>
       </c>
       <c r="B420" s="1">
-        <v>65.400000000000006</v>
+        <v>63.7</v>
       </c>
       <c r="C420" t="s">
         <v>8</v>
@@ -6338,7 +6349,7 @@
         <v>20</v>
       </c>
       <c r="B421" s="1">
-        <v>71.599999999999994</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="C421" t="s">
         <v>8</v>
@@ -6352,7 +6363,7 @@
         <v>21</v>
       </c>
       <c r="B422" s="1">
-        <v>71.7</v>
+        <v>72.7</v>
       </c>
       <c r="C422" t="s">
         <v>8</v>
@@ -6366,7 +6377,7 @@
         <v>22</v>
       </c>
       <c r="B423" s="1">
-        <v>70.7</v>
+        <v>69.2</v>
       </c>
       <c r="C423" t="s">
         <v>8</v>
@@ -6380,7 +6391,7 @@
         <v>23</v>
       </c>
       <c r="B424" s="1">
-        <v>66.599999999999994</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="C424" t="s">
         <v>8</v>
@@ -6394,7 +6405,7 @@
         <v>24</v>
       </c>
       <c r="B425" s="1">
-        <v>79.8</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="C425" t="s">
         <v>8</v>
@@ -6408,7 +6419,7 @@
         <v>25</v>
       </c>
       <c r="B426" s="1">
-        <v>73.2</v>
+        <v>75.7</v>
       </c>
       <c r="C426" t="s">
         <v>8</v>
@@ -6422,7 +6433,7 @@
         <v>26</v>
       </c>
       <c r="B427" s="1">
-        <v>78.5</v>
+        <v>81.5</v>
       </c>
       <c r="C427" t="s">
         <v>8</v>
@@ -6436,7 +6447,7 @@
         <v>27</v>
       </c>
       <c r="B428" s="1">
-        <v>82.8</v>
+        <v>77.5</v>
       </c>
       <c r="C428" t="s">
         <v>8</v>
@@ -6450,7 +6461,7 @@
         <v>28</v>
       </c>
       <c r="B429" s="1">
-        <v>85.7</v>
+        <v>79.8</v>
       </c>
       <c r="C429" t="s">
         <v>8</v>
@@ -6464,7 +6475,7 @@
         <v>29</v>
       </c>
       <c r="B430" s="1">
-        <v>76.8</v>
+        <v>76.5</v>
       </c>
       <c r="C430" t="s">
         <v>8</v>
@@ -6478,7 +6489,7 @@
         <v>30</v>
       </c>
       <c r="B431" s="1">
-        <v>80.2</v>
+        <v>79.3</v>
       </c>
       <c r="C431" t="s">
         <v>8</v>
@@ -6492,7 +6503,7 @@
         <v>31</v>
       </c>
       <c r="B432" s="1">
-        <v>76.7</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="C432" t="s">
         <v>8</v>
@@ -6506,7 +6517,7 @@
         <v>32</v>
       </c>
       <c r="B433" s="1">
-        <v>64.3</v>
+        <v>63.4</v>
       </c>
       <c r="C433" t="s">
         <v>8</v>
@@ -6520,7 +6531,7 @@
         <v>33</v>
       </c>
       <c r="B434" s="1">
-        <v>71.599999999999994</v>
+        <v>77</v>
       </c>
       <c r="C434" t="s">
         <v>8</v>
@@ -6534,7 +6545,7 @@
         <v>34</v>
       </c>
       <c r="B435" s="1">
-        <v>83.2</v>
+        <v>79.3</v>
       </c>
       <c r="C435" t="s">
         <v>8</v>
@@ -6548,7 +6559,7 @@
         <v>35</v>
       </c>
       <c r="B436" s="1">
-        <v>75.099999999999994</v>
+        <v>74.3</v>
       </c>
       <c r="C436" t="s">
         <v>8</v>
@@ -6562,7 +6573,7 @@
         <v>36</v>
       </c>
       <c r="B437" s="1">
-        <v>66.7</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="C437" t="s">
         <v>8</v>
@@ -6576,7 +6587,7 @@
         <v>37</v>
       </c>
       <c r="B438" s="1">
-        <v>85.9</v>
+        <v>83.4</v>
       </c>
       <c r="C438" t="s">
         <v>8</v>
@@ -6590,7 +6601,7 @@
         <v>38</v>
       </c>
       <c r="B439" s="1">
-        <v>79.8</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="C439" t="s">
         <v>8</v>
@@ -6604,7 +6615,7 @@
         <v>39</v>
       </c>
       <c r="B440" s="1">
-        <v>73.5</v>
+        <v>74.2</v>
       </c>
       <c r="C440" t="s">
         <v>8</v>
@@ -6618,7 +6629,7 @@
         <v>40</v>
       </c>
       <c r="B441" s="1">
-        <v>85</v>
+        <v>83.7</v>
       </c>
       <c r="C441" t="s">
         <v>8</v>
@@ -6632,7 +6643,7 @@
         <v>41</v>
       </c>
       <c r="B442" s="1">
-        <v>73.5</v>
+        <v>72.8</v>
       </c>
       <c r="C442" t="s">
         <v>8</v>
@@ -6646,7 +6657,7 @@
         <v>42</v>
       </c>
       <c r="B443" s="1">
-        <v>75.2</v>
+        <v>74.3</v>
       </c>
       <c r="C443" t="s">
         <v>8</v>
@@ -6660,7 +6671,7 @@
         <v>43</v>
       </c>
       <c r="B444" s="1">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C444" t="s">
         <v>8</v>
@@ -6674,7 +6685,7 @@
         <v>44</v>
       </c>
       <c r="B445" s="1">
-        <v>75.7</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="C445" t="s">
         <v>8</v>
@@ -6688,7 +6699,7 @@
         <v>45</v>
       </c>
       <c r="B446" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C446" t="s">
         <v>8</v>
@@ -6702,7 +6713,7 @@
         <v>46</v>
       </c>
       <c r="B447" s="1">
-        <v>69.5</v>
+        <v>68.3</v>
       </c>
       <c r="C447" t="s">
         <v>8</v>
@@ -6716,7 +6727,7 @@
         <v>47</v>
       </c>
       <c r="B448" s="1">
-        <v>75.099999999999994</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="C448" t="s">
         <v>8</v>
@@ -6730,7 +6741,7 @@
         <v>48</v>
       </c>
       <c r="B449" s="1">
-        <v>88.6</v>
+        <v>86.8</v>
       </c>
       <c r="C449" t="s">
         <v>8</v>
@@ -6744,7 +6755,7 @@
         <v>49</v>
       </c>
       <c r="B450" s="1">
-        <v>73.3</v>
+        <v>73.8</v>
       </c>
       <c r="C450" t="s">
         <v>8</v>
@@ -6758,7 +6769,7 @@
         <v>50</v>
       </c>
       <c r="B451" s="1">
-        <v>77.7</v>
+        <v>76.2</v>
       </c>
       <c r="C451" t="s">
         <v>8</v>
@@ -6772,7 +6783,7 @@
         <v>51</v>
       </c>
       <c r="B452" s="1">
-        <v>75.7</v>
+        <v>74.3</v>
       </c>
       <c r="C452" t="s">
         <v>8</v>
@@ -6786,7 +6797,7 @@
         <v>52</v>
       </c>
       <c r="B453" s="1">
-        <v>68.2</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="C453" t="s">
         <v>8</v>
@@ -6800,7 +6811,7 @@
         <v>53</v>
       </c>
       <c r="B454" s="1">
-        <v>74.099999999999994</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="C454" t="s">
         <v>8</v>
@@ -6814,7 +6825,7 @@
         <v>54</v>
       </c>
       <c r="B455" s="1">
-        <v>60.7</v>
+        <v>61.4</v>
       </c>
       <c r="C455" t="s">
         <v>8</v>
@@ -6828,7 +6839,7 @@
         <v>55</v>
       </c>
       <c r="B456" s="1">
-        <v>70.900000000000006</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="C456" t="s">
         <v>8</v>
@@ -6842,7 +6853,7 @@
         <v>56</v>
       </c>
       <c r="B457" s="1">
-        <v>89.1</v>
+        <v>87.6</v>
       </c>
       <c r="C457" t="s">
         <v>8</v>
@@ -6856,7 +6867,7 @@
         <v>57</v>
       </c>
       <c r="B458" s="1">
-        <v>67.099999999999994</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="C458" t="s">
         <v>8</v>
@@ -6870,7 +6881,7 @@
         <v>58</v>
       </c>
       <c r="B459" s="1">
-        <v>68.5</v>
+        <v>69.7</v>
       </c>
       <c r="C459" t="s">
         <v>8</v>
@@ -6884,7 +6895,7 @@
         <v>59</v>
       </c>
       <c r="B460" s="1">
-        <v>74.5</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="C460" t="s">
         <v>8</v>
@@ -6898,7 +6909,7 @@
         <v>60</v>
       </c>
       <c r="B461" s="1">
-        <v>61</v>
+        <v>66.7</v>
       </c>
       <c r="C461" t="s">
         <v>8</v>
@@ -6912,7 +6923,7 @@
         <v>61</v>
       </c>
       <c r="B462" s="1">
-        <v>70.099999999999994</v>
+        <v>68.2</v>
       </c>
       <c r="C462" t="s">
         <v>8</v>
@@ -6926,7 +6937,7 @@
         <v>62</v>
       </c>
       <c r="B463" s="1">
-        <v>64</v>
+        <v>62.3</v>
       </c>
       <c r="C463" t="s">
         <v>8</v>
@@ -6940,7 +6951,7 @@
         <v>63</v>
       </c>
       <c r="B464" s="1">
-        <v>84.6</v>
+        <v>87.7</v>
       </c>
       <c r="C464" t="s">
         <v>8</v>
@@ -6968,7 +6979,7 @@
         <v>65</v>
       </c>
       <c r="B466" s="1">
-        <v>74.400000000000006</v>
+        <v>77.7</v>
       </c>
       <c r="C466" t="s">
         <v>8</v>
@@ -6982,7 +6993,7 @@
         <v>66</v>
       </c>
       <c r="B467" s="1">
-        <v>73.2</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="C467" t="s">
         <v>8</v>
@@ -6996,7 +7007,7 @@
         <v>67</v>
       </c>
       <c r="B468" s="1">
-        <v>77.7</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="C468" t="s">
         <v>8</v>
@@ -7010,7 +7021,7 @@
         <v>68</v>
       </c>
       <c r="B469" s="1">
-        <v>71.8</v>
+        <v>69.3</v>
       </c>
       <c r="C469" t="s">
         <v>8</v>
@@ -7024,7 +7035,7 @@
         <v>69</v>
       </c>
       <c r="B470" s="1">
-        <v>72</v>
+        <v>72.2</v>
       </c>
       <c r="C470" t="s">
         <v>8</v>
@@ -7038,7 +7049,7 @@
         <v>70</v>
       </c>
       <c r="B471" s="1">
-        <v>76.2</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="C471" t="s">
         <v>8</v>
@@ -7052,7 +7063,7 @@
         <v>71</v>
       </c>
       <c r="B472" s="1">
-        <v>69.7</v>
+        <v>70.3</v>
       </c>
       <c r="C472" t="s">
         <v>8</v>
@@ -7066,7 +7077,7 @@
         <v>72</v>
       </c>
       <c r="B473" s="1">
-        <v>75.5</v>
+        <v>76.7</v>
       </c>
       <c r="C473" t="s">
         <v>8</v>
@@ -7080,7 +7091,7 @@
         <v>73</v>
       </c>
       <c r="B474" s="1">
-        <v>68.8</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="C474" t="s">
         <v>8</v>
@@ -7094,7 +7105,7 @@
         <v>74</v>
       </c>
       <c r="B475" s="1">
-        <v>70.099999999999994</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="C475" t="s">
         <v>8</v>
@@ -7108,7 +7119,7 @@
         <v>75</v>
       </c>
       <c r="B476" s="1">
-        <v>73.5</v>
+        <v>73.7</v>
       </c>
       <c r="C476" t="s">
         <v>8</v>
@@ -7122,7 +7133,7 @@
         <v>76</v>
       </c>
       <c r="B477" s="1">
-        <v>73.2</v>
+        <v>73.7</v>
       </c>
       <c r="C477" t="s">
         <v>8</v>
@@ -7136,7 +7147,7 @@
         <v>77</v>
       </c>
       <c r="B478" s="1">
-        <v>71.7</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="C478" t="s">
         <v>8</v>
@@ -7150,7 +7161,7 @@
         <v>78</v>
       </c>
       <c r="B479" s="1">
-        <v>68.599999999999994</v>
+        <v>70</v>
       </c>
       <c r="C479" t="s">
         <v>8</v>
@@ -7164,7 +7175,7 @@
         <v>79</v>
       </c>
       <c r="B480" s="1">
-        <v>68.599999999999994</v>
+        <v>69.8</v>
       </c>
       <c r="C480" t="s">
         <v>8</v>
@@ -7178,7 +7189,7 @@
         <v>80</v>
       </c>
       <c r="B481" s="1">
-        <v>73.099999999999994</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="C481" t="s">
         <v>8</v>
@@ -7192,7 +7203,7 @@
         <v>81</v>
       </c>
       <c r="B482" s="1">
-        <v>66.2</v>
+        <v>66</v>
       </c>
       <c r="C482" t="s">
         <v>8</v>
@@ -7206,7 +7217,7 @@
         <v>82</v>
       </c>
       <c r="B483" s="1">
-        <v>82.2</v>
+        <v>82.9</v>
       </c>
       <c r="C483" t="s">
         <v>8</v>
@@ -7220,7 +7231,7 @@
         <v>83</v>
       </c>
       <c r="B484" s="1">
-        <v>72.400000000000006</v>
+        <v>70.7</v>
       </c>
       <c r="C484" t="s">
         <v>8</v>
@@ -7234,7 +7245,7 @@
         <v>84</v>
       </c>
       <c r="B485" s="1">
-        <v>72.3</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="C485" t="s">
         <v>8</v>
@@ -7248,7 +7259,7 @@
         <v>85</v>
       </c>
       <c r="B486" s="1">
-        <v>74.400000000000006</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="C486" t="s">
         <v>8</v>
@@ -7262,7 +7273,7 @@
         <v>86</v>
       </c>
       <c r="B487" s="1">
-        <v>79.599999999999994</v>
+        <v>77.3</v>
       </c>
       <c r="C487" t="s">
         <v>8</v>
@@ -7276,7 +7287,7 @@
         <v>87</v>
       </c>
       <c r="B488" s="1">
-        <v>73.400000000000006</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="C488" t="s">
         <v>8</v>
@@ -7290,7 +7301,7 @@
         <v>88</v>
       </c>
       <c r="B489" s="1">
-        <v>63.3</v>
+        <v>62.2</v>
       </c>
       <c r="C489" t="s">
         <v>8</v>
@@ -7304,7 +7315,7 @@
         <v>89</v>
       </c>
       <c r="B490" s="1">
-        <v>75.900000000000006</v>
+        <v>77.2</v>
       </c>
       <c r="C490" t="s">
         <v>8</v>
@@ -7318,7 +7329,7 @@
         <v>90</v>
       </c>
       <c r="B491" s="1">
-        <v>66.599999999999994</v>
+        <v>69.5</v>
       </c>
       <c r="C491" t="s">
         <v>8</v>
@@ -7332,7 +7343,7 @@
         <v>91</v>
       </c>
       <c r="B492" s="1">
-        <v>66.5</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="C492" t="s">
         <v>8</v>
@@ -7346,7 +7357,7 @@
         <v>92</v>
       </c>
       <c r="B493" s="1">
-        <v>69.599999999999994</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="C493" t="s">
         <v>8</v>
@@ -7360,7 +7371,7 @@
         <v>93</v>
       </c>
       <c r="B494" s="1">
-        <v>71.2</v>
+        <v>72.5</v>
       </c>
       <c r="C494" t="s">
         <v>8</v>
@@ -7374,7 +7385,7 @@
         <v>94</v>
       </c>
       <c r="B495" s="1">
-        <v>74.8</v>
+        <v>76</v>
       </c>
       <c r="C495" t="s">
         <v>8</v>
@@ -7388,7 +7399,7 @@
         <v>95</v>
       </c>
       <c r="B496" s="1">
-        <v>70.5</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="C496" t="s">
         <v>8</v>
@@ -7402,7 +7413,7 @@
         <v>96</v>
       </c>
       <c r="B497" s="1">
-        <v>76.7</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="C497" t="s">
         <v>8</v>
@@ -7416,7 +7427,7 @@
         <v>97</v>
       </c>
       <c r="B498" s="1">
-        <v>67.7</v>
+        <v>71.5</v>
       </c>
       <c r="C498" t="s">
         <v>8</v>
@@ -7430,7 +7441,7 @@
         <v>98</v>
       </c>
       <c r="B499" s="1">
-        <v>66.599999999999994</v>
+        <v>66.5</v>
       </c>
       <c r="C499" t="s">
         <v>8</v>
@@ -7444,7 +7455,7 @@
         <v>99</v>
       </c>
       <c r="B500" s="1">
-        <v>78.099999999999994</v>
+        <v>76.3</v>
       </c>
       <c r="C500" t="s">
         <v>8</v>
@@ -7458,7 +7469,7 @@
         <v>100</v>
       </c>
       <c r="B501" s="1">
-        <v>68.2</v>
+        <v>67</v>
       </c>
       <c r="C501" t="s">
         <v>8</v>
@@ -7471,1104 +7482,1404 @@
       <c r="A502">
         <v>1</v>
       </c>
+      <c r="B502" s="1">
+        <v>68.800003051757812</v>
+      </c>
       <c r="C502" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D502" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="503" spans="1:4">
       <c r="A503">
         <v>2</v>
       </c>
+      <c r="B503" s="1">
+        <v>76.800003051757812</v>
+      </c>
       <c r="C503" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D503" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="504" spans="1:4">
       <c r="A504">
         <v>3</v>
       </c>
+      <c r="B504" s="1">
+        <v>72.599998474121094</v>
+      </c>
       <c r="C504" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D504" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="505" spans="1:4">
       <c r="A505">
         <v>4</v>
       </c>
+      <c r="B505" s="1">
+        <v>67</v>
+      </c>
       <c r="C505" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D505" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="506" spans="1:4">
       <c r="A506">
         <v>5</v>
       </c>
+      <c r="B506" s="1">
+        <v>66.699996948242188</v>
+      </c>
       <c r="C506" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D506" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="507" spans="1:4">
       <c r="A507">
         <v>6</v>
       </c>
+      <c r="B507" s="1">
+        <v>66.400001525878906</v>
+      </c>
       <c r="C507" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D507" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="508" spans="1:4">
       <c r="A508">
         <v>7</v>
       </c>
+      <c r="B508" s="1">
+        <v>68.5</v>
+      </c>
       <c r="C508" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D508" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="509" spans="1:4">
       <c r="A509">
         <v>8</v>
       </c>
+      <c r="B509" s="1">
+        <v>68.900001525878906</v>
+      </c>
       <c r="C509" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D509" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="510" spans="1:4">
       <c r="A510">
         <v>9</v>
       </c>
+      <c r="B510" s="1">
+        <v>69.599998474121094</v>
+      </c>
       <c r="C510" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D510" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="511" spans="1:4">
       <c r="A511">
         <v>10</v>
       </c>
+      <c r="B511" s="1">
+        <v>57.799999237060547</v>
+      </c>
       <c r="C511" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D511" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="512" spans="1:4">
       <c r="A512">
         <v>11</v>
       </c>
+      <c r="B512" s="1">
+        <v>69</v>
+      </c>
       <c r="C512" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D512" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="513" spans="1:4">
       <c r="A513">
         <v>12</v>
       </c>
+      <c r="B513" s="1">
+        <v>72.199996948242188</v>
+      </c>
       <c r="C513" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D513" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="514" spans="1:4">
       <c r="A514">
         <v>13</v>
       </c>
+      <c r="B514" s="1">
+        <v>68.300003051757812</v>
+      </c>
       <c r="C514" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D514" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="515" spans="1:4">
       <c r="A515">
         <v>14</v>
       </c>
+      <c r="B515" s="1">
+        <v>64.800003051757812</v>
+      </c>
       <c r="C515" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D515" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="516" spans="1:4">
       <c r="A516">
         <v>15</v>
       </c>
+      <c r="B516" s="1">
+        <v>73.900001525878906</v>
+      </c>
       <c r="C516" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D516" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="517" spans="1:4">
       <c r="A517">
         <v>16</v>
       </c>
+      <c r="B517" s="1">
+        <v>69.900001525878906</v>
+      </c>
       <c r="C517" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D517" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="518" spans="1:4">
       <c r="A518">
         <v>17</v>
       </c>
+      <c r="B518" s="1">
+        <v>68.400001525878906</v>
+      </c>
       <c r="C518" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D518" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="519" spans="1:4">
       <c r="A519">
         <v>18</v>
       </c>
+      <c r="B519" s="1">
+        <v>65.900001525878906</v>
+      </c>
       <c r="C519" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D519" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="520" spans="1:4">
       <c r="A520">
         <v>19</v>
       </c>
+      <c r="B520" s="1">
+        <v>58.799999237060547</v>
+      </c>
       <c r="C520" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D520" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="521" spans="1:4">
       <c r="A521">
         <v>20</v>
       </c>
+      <c r="B521" s="1">
+        <v>63.599998474121094</v>
+      </c>
       <c r="C521" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D521" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="522" spans="1:4">
       <c r="A522">
         <v>21</v>
       </c>
+      <c r="B522" s="1">
+        <v>67.099998474121094</v>
+      </c>
       <c r="C522" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D522" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="523" spans="1:4">
       <c r="A523">
         <v>22</v>
       </c>
+      <c r="B523" s="1">
+        <v>66.400001525878906</v>
+      </c>
       <c r="C523" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D523" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="524" spans="1:4">
       <c r="A524">
         <v>23</v>
       </c>
+      <c r="B524" s="1">
+        <v>63.700000762939453</v>
+      </c>
       <c r="C524" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D524" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="525" spans="1:4">
       <c r="A525">
         <v>24</v>
       </c>
+      <c r="B525" s="1">
+        <v>72.900001525878906</v>
+      </c>
       <c r="C525" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D525" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="526" spans="1:4">
       <c r="A526">
         <v>25</v>
       </c>
+      <c r="B526" s="1">
+        <v>70.400001525878906</v>
+      </c>
       <c r="C526" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D526" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="527" spans="1:4">
       <c r="A527">
         <v>26</v>
       </c>
+      <c r="B527" s="1">
+        <v>76.699996948242188</v>
+      </c>
       <c r="C527" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D527" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="528" spans="1:4">
       <c r="A528">
         <v>27</v>
       </c>
+      <c r="B528" s="1">
+        <v>74.400001525878906</v>
+      </c>
       <c r="C528" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D528" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="529" spans="1:4">
       <c r="A529">
         <v>28</v>
       </c>
+      <c r="B529" s="1">
+        <v>74.199996948242188</v>
+      </c>
       <c r="C529" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D529" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="530" spans="1:4">
       <c r="A530">
         <v>29</v>
       </c>
+      <c r="B530" s="1">
+        <v>71.699996948242188</v>
+      </c>
       <c r="C530" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D530" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="531" spans="1:4">
       <c r="A531">
         <v>30</v>
       </c>
+      <c r="B531" s="1">
+        <v>74.599998474121094</v>
+      </c>
       <c r="C531" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D531" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="532" spans="1:4">
       <c r="A532">
         <v>31</v>
       </c>
+      <c r="B532" s="1">
+        <v>72</v>
+      </c>
       <c r="C532" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D532" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="533" spans="1:4">
       <c r="A533">
         <v>32</v>
       </c>
+      <c r="B533" s="1">
+        <v>60.200000762939453</v>
+      </c>
       <c r="C533" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D533" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="534" spans="1:4">
       <c r="A534">
         <v>33</v>
       </c>
+      <c r="B534" s="1">
+        <v>67.400001525878906</v>
+      </c>
       <c r="C534" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D534" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="535" spans="1:4">
       <c r="A535">
         <v>34</v>
       </c>
+      <c r="B535" s="1">
+        <v>74.5</v>
+      </c>
       <c r="C535" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D535" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="536" spans="1:4">
       <c r="A536">
         <v>35</v>
       </c>
+      <c r="B536" s="1">
+        <v>72.599998474121094</v>
+      </c>
       <c r="C536" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D536" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="537" spans="1:4">
       <c r="A537">
         <v>36</v>
       </c>
+      <c r="B537" s="1">
+        <v>64.400001525878906</v>
+      </c>
       <c r="C537" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D537" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="538" spans="1:4">
       <c r="A538">
         <v>37</v>
       </c>
+      <c r="B538" s="1">
+        <v>82.300003051757812</v>
+      </c>
       <c r="C538" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D538" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="539" spans="1:4">
       <c r="A539">
         <v>38</v>
       </c>
+      <c r="B539" s="1">
+        <v>73.5</v>
+      </c>
       <c r="C539" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D539" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="540" spans="1:4">
       <c r="A540">
         <v>39</v>
       </c>
+      <c r="B540" s="1">
+        <v>69.400001525878906</v>
+      </c>
       <c r="C540" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D540" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="541" spans="1:4">
       <c r="A541">
         <v>40</v>
       </c>
+      <c r="B541" s="1">
+        <v>77.5</v>
+      </c>
       <c r="C541" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D541" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="542" spans="1:4">
       <c r="A542">
         <v>41</v>
       </c>
+      <c r="B542" s="1">
+        <v>66.699996948242188</v>
+      </c>
       <c r="C542" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D542" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="543" spans="1:4">
       <c r="A543">
         <v>42</v>
       </c>
+      <c r="B543" s="1">
+        <v>70</v>
+      </c>
       <c r="C543" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D543" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="544" spans="1:4">
       <c r="A544">
         <v>43</v>
       </c>
+      <c r="B544" s="1">
+        <v>72.199996948242188</v>
+      </c>
       <c r="C544" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D544" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="545" spans="1:4">
       <c r="A545">
         <v>44</v>
       </c>
+      <c r="B545" s="1">
+        <v>71.099998474121094</v>
+      </c>
       <c r="C545" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D545" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="546" spans="1:4">
       <c r="A546">
         <v>45</v>
       </c>
+      <c r="B546" s="1">
+        <v>62.799999237060547</v>
+      </c>
       <c r="C546" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D546" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="547" spans="1:4">
       <c r="A547">
         <v>46</v>
       </c>
+      <c r="B547" s="1">
+        <v>63.599998474121094</v>
+      </c>
       <c r="C547" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D547" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="548" spans="1:4">
       <c r="A548">
         <v>47</v>
       </c>
+      <c r="B548" s="1">
+        <v>69.099998474121094</v>
+      </c>
       <c r="C548" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D548" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="549" spans="1:4">
       <c r="A549">
         <v>48</v>
       </c>
+      <c r="B549" s="1">
+        <v>82.5</v>
+      </c>
       <c r="C549" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D549" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="550" spans="1:4">
       <c r="A550">
         <v>49</v>
       </c>
+      <c r="B550" s="1">
+        <v>69.400001525878906</v>
+      </c>
       <c r="C550" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D550" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="551" spans="1:4">
       <c r="A551">
         <v>50</v>
       </c>
+      <c r="B551" s="1">
+        <v>71</v>
+      </c>
       <c r="C551" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D551" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="552" spans="1:4">
       <c r="A552">
         <v>51</v>
       </c>
+      <c r="B552" s="1">
+        <v>70.800003051757812</v>
+      </c>
       <c r="C552" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D552" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="553" spans="1:4">
       <c r="A553">
         <v>52</v>
       </c>
+      <c r="B553" s="1">
+        <v>63.099998474121094</v>
+      </c>
       <c r="C553" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D553" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="554" spans="1:4">
       <c r="A554">
         <v>53</v>
       </c>
+      <c r="B554" s="1">
+        <v>69.400001525878906</v>
+      </c>
       <c r="C554" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D554" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="555" spans="1:4">
       <c r="A555">
         <v>54</v>
       </c>
+      <c r="B555" s="1">
+        <v>56.700000762939453</v>
+      </c>
       <c r="C555" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D555" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="556" spans="1:4">
       <c r="A556">
         <v>55</v>
       </c>
+      <c r="B556" s="1">
+        <v>65.400001525878906</v>
+      </c>
       <c r="C556" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D556" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="557" spans="1:4">
       <c r="A557">
         <v>56</v>
       </c>
+      <c r="B557" s="1">
+        <v>82.699996948242188</v>
+      </c>
       <c r="C557" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D557" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="558" spans="1:4">
       <c r="A558">
         <v>57</v>
       </c>
+      <c r="B558" s="1">
+        <v>62.700000762939453</v>
+      </c>
       <c r="C558" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D558" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="559" spans="1:4">
       <c r="A559">
         <v>58</v>
       </c>
+      <c r="B559" s="1">
+        <v>65</v>
+      </c>
       <c r="C559" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D559" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="560" spans="1:4">
       <c r="A560">
         <v>59</v>
       </c>
+      <c r="B560" s="1">
+        <v>70.099998474121094</v>
+      </c>
       <c r="C560" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D560" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="561" spans="1:4">
       <c r="A561">
         <v>60</v>
       </c>
+      <c r="B561" s="1">
+        <v>58.299999237060547</v>
+      </c>
       <c r="C561" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D561" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="562" spans="1:4">
       <c r="A562">
         <v>61</v>
       </c>
+      <c r="B562" s="1">
+        <v>64.800003051757812</v>
+      </c>
       <c r="C562" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D562" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="563" spans="1:4">
       <c r="A563">
         <v>62</v>
       </c>
+      <c r="B563" s="1">
+        <v>60.099998474121094</v>
+      </c>
       <c r="C563" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D563" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="564" spans="1:4">
       <c r="A564">
         <v>63</v>
       </c>
+      <c r="B564" s="1">
+        <v>80.599998474121094</v>
+      </c>
       <c r="C564" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D564" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="565" spans="1:4">
       <c r="A565">
         <v>64</v>
       </c>
+      <c r="B565" s="1">
+        <v>64</v>
+      </c>
       <c r="C565" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D565" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="566" spans="1:4">
       <c r="A566">
         <v>65</v>
       </c>
+      <c r="B566" s="1">
+        <v>69.900001525878906</v>
+      </c>
       <c r="C566" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D566" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="567" spans="1:4">
       <c r="A567">
         <v>66</v>
       </c>
+      <c r="B567" s="1">
+        <v>67.900001525878906</v>
+      </c>
       <c r="C567" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D567" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="568" spans="1:4">
       <c r="A568">
         <v>67</v>
       </c>
+      <c r="B568" s="1">
+        <v>69.800003051757812</v>
+      </c>
       <c r="C568" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D568" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="569" spans="1:4">
       <c r="A569">
         <v>68</v>
       </c>
+      <c r="B569" s="1">
+        <v>63.5</v>
+      </c>
       <c r="C569" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D569" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="570" spans="1:4">
       <c r="A570">
         <v>69</v>
       </c>
+      <c r="B570" s="1">
+        <v>66.800003051757812</v>
+      </c>
       <c r="C570" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D570" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="571" spans="1:4">
       <c r="A571">
         <v>70</v>
       </c>
+      <c r="B571" s="1">
+        <v>71.199996948242188</v>
+      </c>
       <c r="C571" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D571" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="572" spans="1:4">
       <c r="A572">
         <v>71</v>
       </c>
+      <c r="B572" s="1">
+        <v>65.199996948242188</v>
+      </c>
       <c r="C572" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D572" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="573" spans="1:4">
       <c r="A573">
         <v>72</v>
       </c>
+      <c r="B573" s="1">
+        <v>73.599998474121094</v>
+      </c>
       <c r="C573" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D573" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="574" spans="1:4">
       <c r="A574">
         <v>73</v>
       </c>
+      <c r="B574" s="1">
+        <v>65.300003051757812</v>
+      </c>
       <c r="C574" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D574" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="575" spans="1:4">
       <c r="A575">
         <v>74</v>
       </c>
+      <c r="B575" s="1">
+        <v>65</v>
+      </c>
       <c r="C575" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D575" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="576" spans="1:4">
       <c r="A576">
         <v>75</v>
       </c>
+      <c r="B576" s="1">
+        <v>67.300003051757812</v>
+      </c>
       <c r="C576" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D576" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="577" spans="1:4">
       <c r="A577">
         <v>76</v>
       </c>
+      <c r="B577" s="1">
+        <v>71</v>
+      </c>
       <c r="C577" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D577" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="578" spans="1:4">
       <c r="A578">
         <v>77</v>
       </c>
+      <c r="B578" s="1">
+        <v>67.199996948242188</v>
+      </c>
       <c r="C578" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D578" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="579" spans="1:4">
       <c r="A579">
         <v>78</v>
       </c>
+      <c r="B579" s="1">
+        <v>61.799999237060547</v>
+      </c>
       <c r="C579" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D579" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="580" spans="1:4">
       <c r="A580">
         <v>79</v>
       </c>
+      <c r="B580" s="1">
+        <v>63.5</v>
+      </c>
       <c r="C580" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D580" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="581" spans="1:4">
       <c r="A581">
         <v>80</v>
       </c>
+      <c r="B581" s="1">
+        <v>68.800003051757812</v>
+      </c>
       <c r="C581" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D581" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="582" spans="1:4">
       <c r="A582">
         <v>81</v>
       </c>
+      <c r="B582" s="1">
+        <v>64.099998474121094</v>
+      </c>
       <c r="C582" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D582" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="583" spans="1:4">
       <c r="A583">
         <v>82</v>
       </c>
+      <c r="B583" s="1">
+        <v>79.199996948242188</v>
+      </c>
       <c r="C583" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D583" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="584" spans="1:4">
       <c r="A584">
         <v>83</v>
       </c>
+      <c r="B584" s="1">
+        <v>65.400001525878906</v>
+      </c>
       <c r="C584" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D584" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="585" spans="1:4">
       <c r="A585">
         <v>84</v>
       </c>
+      <c r="B585" s="1">
+        <v>67</v>
+      </c>
       <c r="C585" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D585" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="586" spans="1:4">
       <c r="A586">
         <v>85</v>
       </c>
+      <c r="B586" s="1">
+        <v>68.900001525878906</v>
+      </c>
       <c r="C586" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D586" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="587" spans="1:4">
       <c r="A587">
         <v>86</v>
       </c>
+      <c r="B587" s="1">
+        <v>71.800003051757812</v>
+      </c>
       <c r="C587" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D587" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="588" spans="1:4">
       <c r="A588">
         <v>87</v>
       </c>
+      <c r="B588" s="1">
+        <v>67.5</v>
+      </c>
       <c r="C588" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D588" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="589" spans="1:4">
       <c r="A589">
         <v>88</v>
       </c>
+      <c r="B589" s="1">
+        <v>59.299999237060547</v>
+      </c>
       <c r="C589" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D589" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="590" spans="1:4">
       <c r="A590">
         <v>89</v>
       </c>
+      <c r="B590" s="1">
+        <v>71.699996948242188</v>
+      </c>
       <c r="C590" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D590" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="591" spans="1:4">
       <c r="A591">
         <v>90</v>
       </c>
+      <c r="B591" s="1">
+        <v>61.700000762939453</v>
+      </c>
       <c r="C591" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D591" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="592" spans="1:4">
       <c r="A592">
         <v>91</v>
       </c>
+      <c r="B592" s="1">
+        <v>61.799999237060547</v>
+      </c>
       <c r="C592" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D592" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="593" spans="1:4">
       <c r="A593">
         <v>92</v>
       </c>
+      <c r="B593" s="1">
+        <v>66.099998474121094</v>
+      </c>
       <c r="C593" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D593" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="594" spans="1:4">
       <c r="A594">
         <v>93</v>
       </c>
+      <c r="B594" s="1">
+        <v>66.800003051757812</v>
+      </c>
       <c r="C594" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D594" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="595" spans="1:4">
       <c r="A595">
         <v>94</v>
       </c>
+      <c r="B595" s="1">
+        <v>71.900001525878906</v>
+      </c>
       <c r="C595" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D595" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="596" spans="1:4">
       <c r="A596">
         <v>95</v>
       </c>
+      <c r="B596" s="1">
+        <v>65.599998474121094</v>
+      </c>
       <c r="C596" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D596" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="597" spans="1:4">
       <c r="A597">
         <v>96</v>
       </c>
+      <c r="B597" s="1">
+        <v>72.599998474121094</v>
+      </c>
       <c r="C597" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D597" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="598" spans="1:4">
       <c r="A598">
         <v>97</v>
       </c>
+      <c r="B598" s="1">
+        <v>63.400001525878906</v>
+      </c>
       <c r="C598" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D598" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="599" spans="1:4">
       <c r="A599">
         <v>98</v>
       </c>
+      <c r="B599" s="1">
+        <v>59.299999237060547</v>
+      </c>
       <c r="C599" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D599" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="600" spans="1:4">
       <c r="A600">
         <v>99</v>
       </c>
+      <c r="B600" s="1">
+        <v>72.599998474121094</v>
+      </c>
       <c r="C600" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D600" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="601" spans="1:4">
       <c r="A601">
         <v>100</v>
       </c>
+      <c r="B601" s="1">
+        <v>65</v>
+      </c>
       <c r="C601" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D601" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Makespans10.xlsx
+++ b/data/Makespans10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/livion/Documents/GitHub/Cloud-Workflow-Scheduling-base-on-Deep-Reinforcement-Learning/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8728F084-CEF8-E045-A157-41EE680D7A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFB89AD-3C19-984D-8830-9DEFC86F14E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28420" yWindow="16140" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,8 +110,12 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -452,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102:B201"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1879,7 +1883,7 @@
       <c r="A102" s="1">
         <v>1</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="1">
         <v>219.5</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -1893,7 +1897,7 @@
       <c r="A103" s="1">
         <v>2</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="1">
         <v>230.9</v>
       </c>
       <c r="C103" s="1" t="s">
@@ -1907,7 +1911,7 @@
       <c r="A104" s="1">
         <v>3</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="1">
         <v>218.6</v>
       </c>
       <c r="C104" s="1" t="s">
@@ -1921,7 +1925,7 @@
       <c r="A105" s="1">
         <v>4</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="1">
         <v>223.2</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -1935,7 +1939,7 @@
       <c r="A106" s="1">
         <v>5</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="1">
         <v>230.5</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -1949,7 +1953,7 @@
       <c r="A107" s="1">
         <v>6</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="1">
         <v>218.3</v>
       </c>
       <c r="C107" s="1" t="s">
@@ -1963,7 +1967,7 @@
       <c r="A108" s="1">
         <v>7</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="1">
         <v>231.5</v>
       </c>
       <c r="C108" s="1" t="s">
@@ -1977,7 +1981,7 @@
       <c r="A109" s="1">
         <v>8</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="1">
         <v>233.1</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -1991,7 +1995,7 @@
       <c r="A110" s="1">
         <v>9</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="1">
         <v>199.4</v>
       </c>
       <c r="C110" s="1" t="s">
@@ -2005,7 +2009,7 @@
       <c r="A111" s="1">
         <v>10</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="1">
         <v>221.6</v>
       </c>
       <c r="C111" s="1" t="s">
@@ -2019,7 +2023,7 @@
       <c r="A112" s="1">
         <v>11</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="1">
         <v>219.1</v>
       </c>
       <c r="C112" s="1" t="s">
@@ -2033,7 +2037,7 @@
       <c r="A113" s="1">
         <v>12</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="1">
         <v>218.9</v>
       </c>
       <c r="C113" s="1" t="s">
@@ -2047,7 +2051,7 @@
       <c r="A114" s="1">
         <v>13</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="1">
         <v>216.2</v>
       </c>
       <c r="C114" s="1" t="s">
@@ -2061,7 +2065,7 @@
       <c r="A115" s="1">
         <v>14</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="1">
         <v>208.2</v>
       </c>
       <c r="C115" s="1" t="s">
@@ -2075,7 +2079,7 @@
       <c r="A116" s="1">
         <v>15</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="1">
         <v>224.5</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -2089,7 +2093,7 @@
       <c r="A117" s="1">
         <v>16</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="1">
         <v>210.7</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -2103,7 +2107,7 @@
       <c r="A118" s="1">
         <v>17</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="1">
         <v>236.6</v>
       </c>
       <c r="C118" s="1" t="s">
@@ -2117,7 +2121,7 @@
       <c r="A119" s="1">
         <v>18</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="1">
         <v>216.9</v>
       </c>
       <c r="C119" s="1" t="s">
@@ -2131,7 +2135,7 @@
       <c r="A120" s="1">
         <v>19</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="1">
         <v>238.9</v>
       </c>
       <c r="C120" s="1" t="s">
@@ -2145,7 +2149,7 @@
       <c r="A121" s="1">
         <v>20</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="1">
         <v>218.6</v>
       </c>
       <c r="C121" s="1" t="s">
@@ -2159,7 +2163,7 @@
       <c r="A122" s="1">
         <v>21</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="1">
         <v>227.6</v>
       </c>
       <c r="C122" s="1" t="s">
@@ -2173,7 +2177,7 @@
       <c r="A123" s="1">
         <v>22</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="1">
         <v>224.7</v>
       </c>
       <c r="C123" s="1" t="s">
@@ -2187,7 +2191,7 @@
       <c r="A124" s="1">
         <v>23</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="1">
         <v>219.5</v>
       </c>
       <c r="C124" s="1" t="s">
@@ -2201,7 +2205,7 @@
       <c r="A125" s="1">
         <v>24</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="1">
         <v>223.4</v>
       </c>
       <c r="C125" s="1" t="s">
@@ -2215,7 +2219,7 @@
       <c r="A126" s="1">
         <v>25</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="1">
         <v>216.4</v>
       </c>
       <c r="C126" s="1" t="s">
@@ -2229,7 +2233,7 @@
       <c r="A127" s="1">
         <v>26</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="1">
         <v>235</v>
       </c>
       <c r="C127" s="1" t="s">
@@ -2243,7 +2247,7 @@
       <c r="A128" s="1">
         <v>27</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="1">
         <v>230.9</v>
       </c>
       <c r="C128" s="1" t="s">
@@ -2257,7 +2261,7 @@
       <c r="A129" s="1">
         <v>28</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="1">
         <v>227.6</v>
       </c>
       <c r="C129" s="1" t="s">
@@ -2271,7 +2275,7 @@
       <c r="A130" s="1">
         <v>29</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="1">
         <v>233.1</v>
       </c>
       <c r="C130" s="1" t="s">
@@ -2285,7 +2289,7 @@
       <c r="A131" s="1">
         <v>30</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="1">
         <v>203.6</v>
       </c>
       <c r="C131" s="1" t="s">
@@ -2299,7 +2303,7 @@
       <c r="A132" s="1">
         <v>31</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="1">
         <v>231.6</v>
       </c>
       <c r="C132" s="1" t="s">
@@ -2313,7 +2317,7 @@
       <c r="A133" s="1">
         <v>32</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="1">
         <v>238.3</v>
       </c>
       <c r="C133" s="1" t="s">
@@ -2327,7 +2331,7 @@
       <c r="A134" s="1">
         <v>33</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="1">
         <v>225.2</v>
       </c>
       <c r="C134" s="1" t="s">
@@ -2341,7 +2345,7 @@
       <c r="A135" s="1">
         <v>34</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="1">
         <v>224.6</v>
       </c>
       <c r="C135" s="1" t="s">
@@ -2355,7 +2359,7 @@
       <c r="A136" s="1">
         <v>35</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="1">
         <v>230.4</v>
       </c>
       <c r="C136" s="1" t="s">
@@ -2369,7 +2373,7 @@
       <c r="A137" s="1">
         <v>36</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="1">
         <v>215.9</v>
       </c>
       <c r="C137" s="1" t="s">
@@ -2383,7 +2387,7 @@
       <c r="A138" s="1">
         <v>37</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="1">
         <v>207.3</v>
       </c>
       <c r="C138" s="1" t="s">
@@ -2397,7 +2401,7 @@
       <c r="A139" s="1">
         <v>38</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="1">
         <v>217.4</v>
       </c>
       <c r="C139" s="1" t="s">
@@ -2411,7 +2415,7 @@
       <c r="A140" s="1">
         <v>39</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="1">
         <v>227.4</v>
       </c>
       <c r="C140" s="1" t="s">
@@ -2425,7 +2429,7 @@
       <c r="A141" s="1">
         <v>40</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="1">
         <v>222.4</v>
       </c>
       <c r="C141" s="1" t="s">
@@ -2439,7 +2443,7 @@
       <c r="A142" s="1">
         <v>41</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="1">
         <v>228.5</v>
       </c>
       <c r="C142" s="1" t="s">
@@ -2453,7 +2457,7 @@
       <c r="A143" s="1">
         <v>42</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="1">
         <v>221.3</v>
       </c>
       <c r="C143" s="1" t="s">
@@ -2467,7 +2471,7 @@
       <c r="A144" s="1">
         <v>43</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="1">
         <v>226.2</v>
       </c>
       <c r="C144" s="1" t="s">
@@ -2481,7 +2485,7 @@
       <c r="A145" s="1">
         <v>44</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="1">
         <v>225.9</v>
       </c>
       <c r="C145" s="1" t="s">
@@ -2495,7 +2499,7 @@
       <c r="A146" s="1">
         <v>45</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="1">
         <v>237.6</v>
       </c>
       <c r="C146" s="1" t="s">
@@ -2509,7 +2513,7 @@
       <c r="A147" s="1">
         <v>46</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="1">
         <v>232</v>
       </c>
       <c r="C147" s="1" t="s">
@@ -2523,7 +2527,7 @@
       <c r="A148" s="1">
         <v>47</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="1">
         <v>215.1</v>
       </c>
       <c r="C148" s="1" t="s">
@@ -2537,7 +2541,7 @@
       <c r="A149" s="1">
         <v>48</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="1">
         <v>229.5</v>
       </c>
       <c r="C149" s="1" t="s">
@@ -2551,7 +2555,7 @@
       <c r="A150" s="1">
         <v>49</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="1">
         <v>221.8</v>
       </c>
       <c r="C150" s="1" t="s">
@@ -2565,7 +2569,7 @@
       <c r="A151" s="1">
         <v>50</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="1">
         <v>217.3</v>
       </c>
       <c r="C151" s="1" t="s">
@@ -2579,7 +2583,7 @@
       <c r="A152" s="1">
         <v>51</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="1">
         <v>234.6</v>
       </c>
       <c r="C152" s="1" t="s">
@@ -2593,7 +2597,7 @@
       <c r="A153" s="1">
         <v>52</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="1">
         <v>238.3</v>
       </c>
       <c r="C153" s="1" t="s">
@@ -2607,7 +2611,7 @@
       <c r="A154" s="1">
         <v>53</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="1">
         <v>222.3</v>
       </c>
       <c r="C154" s="1" t="s">
@@ -2621,7 +2625,7 @@
       <c r="A155" s="1">
         <v>54</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="1">
         <v>220</v>
       </c>
       <c r="C155" s="1" t="s">
@@ -2635,7 +2639,7 @@
       <c r="A156" s="1">
         <v>55</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="1">
         <v>222.2</v>
       </c>
       <c r="C156" s="1" t="s">
@@ -2649,7 +2653,7 @@
       <c r="A157" s="1">
         <v>56</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="1">
         <v>217.9</v>
       </c>
       <c r="C157" s="1" t="s">
@@ -2663,7 +2667,7 @@
       <c r="A158" s="1">
         <v>57</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="1">
         <v>228.6</v>
       </c>
       <c r="C158" s="1" t="s">
@@ -2677,7 +2681,7 @@
       <c r="A159" s="1">
         <v>58</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="1">
         <v>240.6</v>
       </c>
       <c r="C159" s="1" t="s">
@@ -2691,7 +2695,7 @@
       <c r="A160" s="1">
         <v>59</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="1">
         <v>215.7</v>
       </c>
       <c r="C160" s="1" t="s">
@@ -2705,7 +2709,7 @@
       <c r="A161" s="1">
         <v>60</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="1">
         <v>236</v>
       </c>
       <c r="C161" s="1" t="s">
@@ -2719,7 +2723,7 @@
       <c r="A162" s="1">
         <v>61</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="1">
         <v>213.6</v>
       </c>
       <c r="C162" s="1" t="s">
@@ -2733,7 +2737,7 @@
       <c r="A163" s="1">
         <v>62</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="1">
         <v>231.9</v>
       </c>
       <c r="C163" s="1" t="s">
@@ -2747,7 +2751,7 @@
       <c r="A164" s="1">
         <v>63</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="1">
         <v>206.2</v>
       </c>
       <c r="C164" s="1" t="s">
@@ -2761,7 +2765,7 @@
       <c r="A165" s="1">
         <v>64</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="1">
         <v>228.6</v>
       </c>
       <c r="C165" s="1" t="s">
@@ -2775,7 +2779,7 @@
       <c r="A166" s="1">
         <v>65</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="1">
         <v>207</v>
       </c>
       <c r="C166" s="1" t="s">
@@ -2789,7 +2793,7 @@
       <c r="A167" s="1">
         <v>66</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="1">
         <v>237.7</v>
       </c>
       <c r="C167" s="1" t="s">
@@ -2803,7 +2807,7 @@
       <c r="A168" s="1">
         <v>67</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="1">
         <v>227</v>
       </c>
       <c r="C168" s="1" t="s">
@@ -2817,7 +2821,7 @@
       <c r="A169" s="1">
         <v>68</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="1">
         <v>221.3</v>
       </c>
       <c r="C169" s="1" t="s">
@@ -2831,7 +2835,7 @@
       <c r="A170" s="1">
         <v>69</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="1">
         <v>201.9</v>
       </c>
       <c r="C170" s="1" t="s">
@@ -2845,7 +2849,7 @@
       <c r="A171" s="1">
         <v>70</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="1">
         <v>215.8</v>
       </c>
       <c r="C171" s="1" t="s">
@@ -2859,7 +2863,7 @@
       <c r="A172" s="1">
         <v>71</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="1">
         <v>230.5</v>
       </c>
       <c r="C172" s="1" t="s">
@@ -2873,7 +2877,7 @@
       <c r="A173" s="1">
         <v>72</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="1">
         <v>223.4</v>
       </c>
       <c r="C173" s="1" t="s">
@@ -2887,7 +2891,7 @@
       <c r="A174" s="1">
         <v>73</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="1">
         <v>221.4</v>
       </c>
       <c r="C174" s="1" t="s">
@@ -2901,7 +2905,7 @@
       <c r="A175" s="1">
         <v>74</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="1">
         <v>228.7</v>
       </c>
       <c r="C175" s="1" t="s">
@@ -2915,7 +2919,7 @@
       <c r="A176" s="1">
         <v>75</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="1">
         <v>218.9</v>
       </c>
       <c r="C176" s="1" t="s">
@@ -2929,7 +2933,7 @@
       <c r="A177" s="1">
         <v>76</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="1">
         <v>225.2</v>
       </c>
       <c r="C177" s="1" t="s">
@@ -2943,7 +2947,7 @@
       <c r="A178" s="1">
         <v>77</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="1">
         <v>223.9</v>
       </c>
       <c r="C178" s="1" t="s">
@@ -2957,7 +2961,7 @@
       <c r="A179" s="1">
         <v>78</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="1">
         <v>200.8</v>
       </c>
       <c r="C179" s="1" t="s">
@@ -2971,7 +2975,7 @@
       <c r="A180" s="1">
         <v>79</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="1">
         <v>212.2</v>
       </c>
       <c r="C180" s="1" t="s">
@@ -2985,7 +2989,7 @@
       <c r="A181" s="1">
         <v>80</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="1">
         <v>217.9</v>
       </c>
       <c r="C181" s="1" t="s">
@@ -2999,7 +3003,7 @@
       <c r="A182" s="1">
         <v>81</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="1">
         <v>225.1</v>
       </c>
       <c r="C182" s="1" t="s">
@@ -3013,7 +3017,7 @@
       <c r="A183" s="1">
         <v>82</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="1">
         <v>221</v>
       </c>
       <c r="C183" s="1" t="s">
@@ -3027,7 +3031,7 @@
       <c r="A184" s="1">
         <v>83</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="1">
         <v>230.8</v>
       </c>
       <c r="C184" s="1" t="s">
@@ -3041,7 +3045,7 @@
       <c r="A185" s="1">
         <v>84</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="1">
         <v>237.7</v>
       </c>
       <c r="C185" s="1" t="s">
@@ -3055,7 +3059,7 @@
       <c r="A186" s="1">
         <v>85</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="1">
         <v>212.8</v>
       </c>
       <c r="C186" s="1" t="s">
@@ -3069,7 +3073,7 @@
       <c r="A187" s="1">
         <v>86</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="1">
         <v>226.2</v>
       </c>
       <c r="C187" s="1" t="s">
@@ -3083,7 +3087,7 @@
       <c r="A188" s="1">
         <v>87</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="1">
         <v>218.1</v>
       </c>
       <c r="C188" s="1" t="s">
@@ -3097,7 +3101,7 @@
       <c r="A189" s="1">
         <v>88</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="1">
         <v>229.3</v>
       </c>
       <c r="C189" s="1" t="s">
@@ -3111,7 +3115,7 @@
       <c r="A190" s="1">
         <v>89</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="1">
         <v>217.4</v>
       </c>
       <c r="C190" s="1" t="s">
@@ -3125,7 +3129,7 @@
       <c r="A191" s="1">
         <v>90</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="1">
         <v>225.1</v>
       </c>
       <c r="C191" s="1" t="s">
@@ -3139,7 +3143,7 @@
       <c r="A192" s="1">
         <v>91</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="1">
         <v>212.8</v>
       </c>
       <c r="C192" s="1" t="s">
@@ -3153,7 +3157,7 @@
       <c r="A193" s="1">
         <v>92</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="1">
         <v>205.4</v>
       </c>
       <c r="C193" s="1" t="s">
@@ -3167,7 +3171,7 @@
       <c r="A194" s="1">
         <v>93</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="1">
         <v>218.1</v>
       </c>
       <c r="C194" s="1" t="s">
@@ -3181,7 +3185,7 @@
       <c r="A195" s="1">
         <v>94</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="1">
         <v>209.9</v>
       </c>
       <c r="C195" s="1" t="s">
@@ -3195,7 +3199,7 @@
       <c r="A196" s="1">
         <v>95</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="1">
         <v>221</v>
       </c>
       <c r="C196" s="1" t="s">
@@ -3209,7 +3213,7 @@
       <c r="A197" s="1">
         <v>96</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="1">
         <v>216.1</v>
       </c>
       <c r="C197" s="1" t="s">
@@ -3223,7 +3227,7 @@
       <c r="A198" s="1">
         <v>97</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="1">
         <v>223.8</v>
       </c>
       <c r="C198" s="1" t="s">
@@ -3237,7 +3241,7 @@
       <c r="A199" s="1">
         <v>98</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="1">
         <v>231.1</v>
       </c>
       <c r="C199" s="1" t="s">
@@ -3251,7 +3255,7 @@
       <c r="A200" s="1">
         <v>99</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="1">
         <v>230.5</v>
       </c>
       <c r="C200" s="1" t="s">
@@ -3265,7 +3269,7 @@
       <c r="A201" s="1">
         <v>100</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="1">
         <v>232.7</v>
       </c>
       <c r="C201" s="1" t="s">
